--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_SOx.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>0.004292008896832201</v>
+        <v>0.007277754216367645</v>
       </c>
       <c r="C2">
-        <v>0.0003656999999999999</v>
+        <v>0.0006200999999999999</v>
       </c>
       <c r="D2">
-        <v>0.0001393129812211415</v>
+        <v>0.0002362263594619357</v>
       </c>
       <c r="E2">
-        <v>8.781468219536516E-05</v>
+        <v>0.000148903156766054</v>
       </c>
       <c r="F2">
-        <v>0.0005649075295205881</v>
+        <v>0.000957886680491432</v>
       </c>
       <c r="G2">
-        <v>0.0004316534780709341</v>
+        <v>0.0007319341584681058</v>
       </c>
       <c r="H2">
-        <v>3.30678183900698E-05</v>
+        <v>5.607151813968356E-05</v>
       </c>
       <c r="I2">
-        <v>0.0059144653862303</v>
+        <v>0.01002887608969485</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>0.003192146274389693</v>
+        <v>0.005412769769617307</v>
       </c>
       <c r="C3">
-        <v>0.0003809374999999999</v>
+        <v>0.0006459375000000001</v>
       </c>
       <c r="D3">
-        <v>0.0001360731444485569</v>
+        <v>0.0002307327231953791</v>
       </c>
       <c r="E3">
-        <v>6.179551710044216E-05</v>
+        <v>0.0001047837029094454</v>
       </c>
       <c r="F3">
-        <v>0.0005890031113484805</v>
+        <v>0.0009987444061995978</v>
       </c>
       <c r="G3">
-        <v>0.0003033790954366471</v>
+        <v>0.0005144254226969232</v>
       </c>
       <c r="H3">
-        <v>2.528715523946514E-05</v>
+        <v>4.287821975387566E-05</v>
       </c>
       <c r="I3">
-        <v>0.004688621797963284</v>
+        <v>0.007950271744372529</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>0.003452268025712856</v>
+        <v>0.005853845782730497</v>
       </c>
       <c r="C4">
-        <v>0.0004114125000000001</v>
+        <v>0.0006976125000000001</v>
       </c>
       <c r="D4">
-        <v>0.0001133942870404641</v>
+        <v>0.0001922772693294825</v>
       </c>
       <c r="E4">
-        <v>8.781468219536516E-05</v>
+        <v>0.000148903156766054</v>
       </c>
       <c r="F4">
-        <v>0.0004845889234276135</v>
+        <v>0.0008216942614642143</v>
       </c>
       <c r="G4">
-        <v>0.0002993068928133364</v>
+        <v>0.0005075203834660921</v>
       </c>
       <c r="H4">
-        <v>1.167099472590698E-05</v>
+        <v>1.978994757871185E-05</v>
       </c>
       <c r="I4">
-        <v>0.004860456305915541</v>
+        <v>0.008241643301335052</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>0.003217592967453915</v>
+        <v>0.005455918510030553</v>
       </c>
       <c r="C5">
-        <v>0.0005028375</v>
+        <v>0.0008526375000000002</v>
       </c>
       <c r="D5">
-        <v>0.0001490324915388957</v>
+        <v>0.0002527072682616055</v>
       </c>
       <c r="E5">
-        <v>7.155270401103829E-05</v>
+        <v>0.0001213284981056736</v>
       </c>
       <c r="F5">
-        <v>0.0004069476042044048</v>
+        <v>0.0006900415897379039</v>
       </c>
       <c r="G5">
-        <v>0.0002708014744501615</v>
+        <v>0.0004591851088502737</v>
       </c>
       <c r="H5">
-        <v>2.139682366416281E-05</v>
+        <v>3.628157056097172E-05</v>
       </c>
       <c r="I5">
-        <v>0.004640161565322579</v>
+        <v>0.007868100045546982</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>0.003341999022434557</v>
+        <v>0.005666867907606426</v>
       </c>
       <c r="C6">
-        <v>0.0006095</v>
+        <v>0.0010335</v>
       </c>
       <c r="D6">
-        <v>0.0001263536341308028</v>
+        <v>0.0002142518143957091</v>
       </c>
       <c r="E6">
-        <v>9.269327565066323E-05</v>
+        <v>0.0001571755543641681</v>
       </c>
       <c r="F6">
-        <v>0.0004712024890787845</v>
+        <v>0.0007989955249596782</v>
       </c>
       <c r="G6">
-        <v>0.0002809819810084383</v>
+        <v>0.0004764477069273518</v>
       </c>
       <c r="H6">
-        <v>2.334198945181397E-05</v>
+        <v>3.95798951574237E-05</v>
       </c>
       <c r="I6">
-        <v>0.004946072391755061</v>
+        <v>0.008386818403410757</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>0.003285450815625174</v>
+        <v>0.005570981817799213</v>
       </c>
       <c r="C7">
-        <v>0.0004876</v>
+        <v>0.0008268000000000003</v>
       </c>
       <c r="D7">
-        <v>0.0001555121650840651</v>
+        <v>0.0002636945407947189</v>
       </c>
       <c r="E7">
-        <v>6.992650619260559E-05</v>
+        <v>0.0001185710322396356</v>
       </c>
       <c r="F7">
-        <v>0.0005301028002136325</v>
+        <v>0.0008988699655796379</v>
       </c>
       <c r="G7">
-        <v>0.0002870902849434043</v>
+        <v>0.0004868052657735986</v>
       </c>
       <c r="H7">
-        <v>2.139682366416281E-05</v>
+        <v>3.628157056097172E-05</v>
       </c>
       <c r="I7">
-        <v>0.004837079395723045</v>
+        <v>0.008202004192747775</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>0.003460750256734264</v>
+        <v>0.005868228696201579</v>
       </c>
       <c r="C8">
-        <v>0.0005333124999999999</v>
+        <v>0.0009043125000000003</v>
       </c>
       <c r="D8">
-        <v>0.0001069146134952947</v>
+        <v>0.0001812899967963693</v>
       </c>
       <c r="E8">
-        <v>7.480509964790367E-05</v>
+        <v>0.0001268434298377497</v>
       </c>
       <c r="F8">
-        <v>0.0004765570628183162</v>
+        <v>0.0008080750195614925</v>
       </c>
       <c r="G8">
-        <v>0.0002198989416587777</v>
+        <v>0.0003728721184648841</v>
       </c>
       <c r="H8">
-        <v>2.72323210271163E-05</v>
+        <v>4.617654435032764E-05</v>
       </c>
       <c r="I8">
-        <v>0.004899470795381672</v>
+        <v>0.008307798305212402</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>0.004721775268583517</v>
+        <v>0.008006488498902484</v>
       </c>
       <c r="C9">
-        <v>0.00030475</v>
+        <v>0.0005167500000000001</v>
       </c>
       <c r="D9">
-        <v>0.0002138292269905894</v>
+        <v>0.0003625799935927387</v>
       </c>
       <c r="E9">
-        <v>0.0001008242647428267</v>
+        <v>0.0001709628836943583</v>
       </c>
       <c r="F9">
-        <v>0.0005274255133438667</v>
+        <v>0.0008943302182787303</v>
       </c>
       <c r="G9">
-        <v>0.0002137906377238116</v>
+        <v>0.0003625145596186374</v>
       </c>
       <c r="H9">
-        <v>1.945165787651164E-05</v>
+        <v>3.298324596451975E-05</v>
       </c>
       <c r="I9">
-        <v>0.006101846569261123</v>
+        <v>0.01034660940005147</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>0.005756607453195227</v>
+        <v>0.009761203942374522</v>
       </c>
       <c r="C10">
-        <v>0.0004114125000000001</v>
+        <v>0.0006976125000000001</v>
       </c>
       <c r="D10">
-        <v>0.0001263536341308028</v>
+        <v>0.0002142518143957091</v>
       </c>
       <c r="E10">
-        <v>0.0001024504625612593</v>
+        <v>0.0001737203495603963</v>
       </c>
       <c r="F10">
-        <v>0.0003159198506323669</v>
+        <v>0.0005356901815070568</v>
       </c>
       <c r="G10">
-        <v>8.144405246621399E-05</v>
+        <v>0.0001381007846166238</v>
       </c>
       <c r="H10">
-        <v>4.279364732832561E-05</v>
+        <v>7.256314112194344E-05</v>
       </c>
       <c r="I10">
-        <v>0.006836981600314195</v>
+        <v>0.01159314271357625</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>0.005544551677660043</v>
+        <v>0.009401631105597462</v>
       </c>
       <c r="C11">
-        <v>0.0003656999999999999</v>
+        <v>0.0006200999999999999</v>
       </c>
       <c r="D11">
-        <v>0.0001069146134952947</v>
+        <v>0.0001812899967963693</v>
       </c>
       <c r="E11">
-        <v>0.000120338638564019</v>
+        <v>0.0002040524740868147</v>
       </c>
       <c r="F11">
-        <v>0.0002248920970603289</v>
+        <v>0.0003813387732762101</v>
       </c>
       <c r="G11">
-        <v>5.090253279138376E-05</v>
+        <v>8.631299038538981E-05</v>
       </c>
       <c r="H11">
-        <v>7.780663150604657E-06</v>
+        <v>1.31932983858079E-05</v>
       </c>
       <c r="I11">
-        <v>0.006421080222721674</v>
+        <v>0.01088791863852805</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>0.003989475990401999</v>
+        <v>0.006764763635899041</v>
       </c>
       <c r="C12">
-        <v>0.0005028375</v>
+        <v>0.0008526375000000002</v>
       </c>
       <c r="D12">
-        <v>9.395526640495597E-05</v>
+        <v>0.0001593154517301427</v>
       </c>
       <c r="E12">
-        <v>0.0001138338472902882</v>
+        <v>0.0001930226106226626</v>
       </c>
       <c r="F12">
-        <v>0.0001418962040975885</v>
+        <v>0.0002406066069480848</v>
       </c>
       <c r="G12">
-        <v>6.922744459628193E-05</v>
+        <v>0.0001173856669241302</v>
       </c>
       <c r="H12">
-        <v>3.890331575302329E-06</v>
+        <v>6.59664919290395E-06</v>
       </c>
       <c r="I12">
-        <v>0.004915116584366416</v>
+        <v>0.008334328121316965</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>0.002878303726597613</v>
+        <v>0.004880601971187261</v>
       </c>
       <c r="C13">
-        <v>0.00079235</v>
+        <v>0.00134355</v>
       </c>
       <c r="D13">
-        <v>6.803657222427846E-05</v>
+        <v>0.0001153663615976895</v>
       </c>
       <c r="E13">
-        <v>9.757186910596132E-05</v>
+        <v>0.0001654479519622822</v>
       </c>
       <c r="F13">
-        <v>0.0001151233353999303</v>
+        <v>0.0001952091339390122</v>
       </c>
       <c r="G13">
-        <v>7.126354590793725E-05</v>
+        <v>0.0001208381865395457</v>
       </c>
       <c r="H13">
-        <v>9.725828938255822E-06</v>
+        <v>1.649162298225987E-05</v>
       </c>
       <c r="I13">
-        <v>0.004032374878173976</v>
+        <v>0.006837505228208052</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.002157314089777977</v>
+        <v>0.003658054326145266</v>
       </c>
       <c r="C14">
-        <v>0.0004571250000000001</v>
+        <v>0.0007751250000000003</v>
       </c>
       <c r="D14">
-        <v>3.563820449843158E-05</v>
+        <v>6.042999893212312E-05</v>
       </c>
       <c r="E14">
-        <v>9.594567128752863E-05</v>
+        <v>0.0001626904860962442</v>
       </c>
       <c r="F14">
-        <v>7.228674548367713E-05</v>
+        <v>0.0001225731771244961</v>
       </c>
       <c r="G14">
-        <v>3.664982360979626E-05</v>
+        <v>6.214535307748066E-05</v>
       </c>
       <c r="H14">
-        <v>9.725828938255822E-06</v>
+        <v>1.649162298225987E-05</v>
       </c>
       <c r="I14">
-        <v>0.002864685363595666</v>
+        <v>0.004857509964357871</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.001359984373765671</v>
+        <v>0.002306060459863529</v>
       </c>
       <c r="C15">
-        <v>0.0006095</v>
+        <v>0.0010335</v>
       </c>
       <c r="D15">
-        <v>3.563820449843158E-05</v>
+        <v>6.042999893212312E-05</v>
       </c>
       <c r="E15">
-        <v>5.366452800827872E-05</v>
+        <v>9.099637357925518E-05</v>
       </c>
       <c r="F15">
-        <v>6.425488487437969E-05</v>
+        <v>0.0001089539352217743</v>
       </c>
       <c r="G15">
-        <v>2.646931705151955E-05</v>
+        <v>4.488275500040268E-05</v>
       </c>
       <c r="H15">
-        <v>3.890331575302329E-06</v>
+        <v>6.59664919290395E-06</v>
       </c>
       <c r="I15">
-        <v>0.002153401639773582</v>
+        <v>0.003651420171789988</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.0008001571263527752</v>
+        <v>0.001356788170772098</v>
       </c>
       <c r="C16">
-        <v>0.0003504625</v>
+        <v>0.0005942625000000002</v>
       </c>
       <c r="D16">
-        <v>1.295934709033875E-05</v>
+        <v>2.197454506622658E-05</v>
       </c>
       <c r="E16">
-        <v>2.439296727649033E-05</v>
+        <v>4.136198799057056E-05</v>
       </c>
       <c r="F16">
-        <v>5.890031113484806E-05</v>
+        <v>9.987444061995978E-05</v>
       </c>
       <c r="G16">
-        <v>4.479422885641766E-05</v>
+        <v>7.595543153914299E-05</v>
       </c>
       <c r="H16">
-        <v>3.890331575302329E-06</v>
+        <v>6.59664919290395E-06</v>
       </c>
       <c r="I16">
-        <v>0.001295556812286172</v>
+        <v>0.002196813725180902</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,28 +873,28 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.0004834871682202282</v>
+        <v>0.0008198260678516912</v>
       </c>
       <c r="C17">
-        <v>0.0002590375</v>
+        <v>0.0004392375</v>
       </c>
       <c r="D17">
-        <v>3.239836772584688E-06</v>
+        <v>5.493636266556646E-06</v>
       </c>
       <c r="E17">
-        <v>9.757186910596135E-06</v>
+        <v>1.654479519622822E-05</v>
       </c>
       <c r="F17">
-        <v>8.567317983250626E-05</v>
+        <v>0.0001452719136290323</v>
       </c>
       <c r="G17">
-        <v>4.275812754476236E-05</v>
+        <v>7.250291192372745E-05</v>
       </c>
       <c r="H17">
-        <v>1.945165787651164E-06</v>
+        <v>3.298324596451975E-06</v>
       </c>
       <c r="I17">
-        <v>0.0008858981650683287</v>
+        <v>0.001502175149463688</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -902,25 +902,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.0003619085235800537</v>
+        <v>0.0006136709747661784</v>
       </c>
       <c r="C18">
-        <v>0.000396175</v>
+        <v>0.0006717750000000001</v>
       </c>
       <c r="D18">
-        <v>6.479673545169376E-06</v>
+        <v>1.098727253311329E-05</v>
       </c>
       <c r="E18">
-        <v>3.252395636865377E-06</v>
+        <v>5.514931732076074E-06</v>
       </c>
       <c r="F18">
-        <v>7.228674548367713E-05</v>
+        <v>0.0001225731771244961</v>
       </c>
       <c r="G18">
-        <v>3.054151967483023E-05</v>
+        <v>5.17877942312339E-05</v>
       </c>
       <c r="I18">
-        <v>0.0008706438579205959</v>
+        <v>0.001476309150387098</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.0002120557755351877</v>
+        <v>0.0003595728367770577</v>
       </c>
       <c r="C19">
-        <v>0.00018285</v>
+        <v>0.00031005</v>
       </c>
       <c r="D19">
-        <v>9.719510317754066E-06</v>
+        <v>1.648090879966993E-05</v>
       </c>
       <c r="E19">
-        <v>1.626197818432688E-06</v>
+        <v>2.757465866038037E-06</v>
       </c>
       <c r="F19">
-        <v>5.622302426508222E-05</v>
+        <v>9.533469331905253E-05</v>
       </c>
       <c r="G19">
-        <v>4.479422885641766E-05</v>
+        <v>7.595543153914299E-05</v>
       </c>
       <c r="I19">
-        <v>0.0005072687367928743</v>
+        <v>0.0008601513363009612</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,25 +954,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.0002883958547278553</v>
+        <v>0.0004890190580167984</v>
       </c>
       <c r="C20">
-        <v>0.0001371375</v>
+        <v>0.0002325375</v>
       </c>
       <c r="D20">
-        <v>9.719510317754066E-06</v>
+        <v>1.648090879966993E-05</v>
       </c>
       <c r="E20">
-        <v>1.300958254746151E-05</v>
+        <v>2.205972692830429E-05</v>
       </c>
       <c r="F20">
-        <v>5.35457373953164E-05</v>
+        <v>9.079494601814522E-05</v>
       </c>
       <c r="G20">
-        <v>2.44332157398642E-05</v>
+        <v>4.143023538498712E-05</v>
       </c>
       <c r="I20">
-        <v>0.0005262414007282515</v>
+        <v>0.0008923223751479049</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -980,28 +980,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.00057961911979618</v>
+        <v>0.0009828324205239576</v>
       </c>
       <c r="C21">
-        <v>0.000213325</v>
+        <v>0.0003617250000000001</v>
       </c>
       <c r="D21">
-        <v>9.719510317754066E-06</v>
+        <v>1.648090879966993E-05</v>
       </c>
       <c r="E21">
-        <v>8.130989092163443E-06</v>
+        <v>1.378732933019018E-05</v>
       </c>
       <c r="F21">
-        <v>7.228674548367713E-05</v>
+        <v>0.0001225731771244961</v>
       </c>
       <c r="G21">
-        <v>5.090253279138376E-05</v>
+        <v>8.631299038538981E-05</v>
       </c>
       <c r="H21">
-        <v>5.835497362953491E-06</v>
+        <v>9.894973789355925E-06</v>
       </c>
       <c r="I21">
-        <v>0.0009398193948441119</v>
+        <v>0.00159360679995306</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1009,28 +1009,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.001719065487005256</v>
+        <v>0.002914937130139345</v>
       </c>
       <c r="C22">
-        <v>0.000274275</v>
+        <v>0.0004650750000000001</v>
       </c>
       <c r="D22">
-        <v>6.155689867910912E-05</v>
+        <v>0.0001043790890645763</v>
       </c>
       <c r="E22">
-        <v>3.577635200551915E-05</v>
+        <v>6.066424905283682E-05</v>
       </c>
       <c r="F22">
-        <v>0.0001659917859254809</v>
+        <v>0.0002814643326562504</v>
       </c>
       <c r="G22">
-        <v>9.773286295945681E-05</v>
+        <v>0.0001657209415399485</v>
       </c>
       <c r="H22">
-        <v>1.945165787651164E-06</v>
+        <v>3.298324596451975E-06</v>
       </c>
       <c r="I22">
-        <v>0.002356343552362472</v>
+        <v>0.003995539067049409</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1038,28 +1038,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>0.002917887471364183</v>
+        <v>0.004947722234052315</v>
       </c>
       <c r="C23">
-        <v>0.0001980875</v>
+        <v>0.0003358875000000001</v>
       </c>
       <c r="D23">
-        <v>8.423575608720193E-05</v>
+        <v>0.0001428345429304727</v>
       </c>
       <c r="E23">
-        <v>9.594567128752863E-05</v>
+        <v>0.0001626904860962442</v>
       </c>
       <c r="F23">
-        <v>0.0002275693839300948</v>
+        <v>0.0003858785205771174</v>
       </c>
       <c r="G23">
-        <v>0.0001343826865692531</v>
+        <v>0.0002278662946174291</v>
       </c>
       <c r="H23">
-        <v>2.334198945181397E-05</v>
+        <v>3.95798951574237E-05</v>
       </c>
       <c r="I23">
-        <v>0.003681450458690075</v>
+        <v>0.006242459473431001</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1067,28 +1067,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>0.004583232161900526</v>
+        <v>0.007771567578874801</v>
       </c>
       <c r="C24">
-        <v>0.0001980875</v>
+        <v>0.0003358875000000001</v>
       </c>
       <c r="D24">
-        <v>8.423575608720193E-05</v>
+        <v>0.0001428345429304727</v>
       </c>
       <c r="E24">
-        <v>0.000120338638564019</v>
+        <v>0.0002040524740868147</v>
       </c>
       <c r="F24">
-        <v>0.0003400154324602593</v>
+        <v>0.0005765479072152222</v>
       </c>
       <c r="G24">
-        <v>0.0001527075983741512</v>
+        <v>0.0002589389711561694</v>
       </c>
       <c r="H24">
-        <v>4.084848154067445E-05</v>
+        <v>6.926481652549146E-05</v>
       </c>
       <c r="I24">
-        <v>0.005519465568926831</v>
+        <v>0.009359093790788971</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1096,28 +1096,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>0.004455998696579411</v>
+        <v>0.00755582387680857</v>
       </c>
       <c r="C25">
-        <v>0.000335225</v>
+        <v>0.000568425</v>
       </c>
       <c r="D25">
-        <v>9.071542963237128E-05</v>
+        <v>0.000153821815463586</v>
       </c>
       <c r="E25">
-        <v>0.0001138338472902882</v>
+        <v>0.0001930226106226626</v>
       </c>
       <c r="F25">
-        <v>0.000283792408195177</v>
+        <v>0.0004812132138961696</v>
       </c>
       <c r="G25">
-        <v>0.0001832491180489815</v>
+        <v>0.0003107267653874034</v>
       </c>
       <c r="H25">
-        <v>7.780663150604657E-06</v>
+        <v>1.31932983858079E-05</v>
       </c>
       <c r="I25">
-        <v>0.005470595162896833</v>
+        <v>0.009276226580564199</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1125,28 +1125,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>0.004292008896832201</v>
+        <v>0.007277754216367645</v>
       </c>
       <c r="C26">
-        <v>0.0003656999999999999</v>
+        <v>0.0006200999999999999</v>
       </c>
       <c r="D26">
-        <v>0.0001393129812211415</v>
+        <v>0.0002362263594619357</v>
       </c>
       <c r="E26">
-        <v>8.781468219536516E-05</v>
+        <v>0.000148903156766054</v>
       </c>
       <c r="F26">
-        <v>0.0005649075295205881</v>
+        <v>0.000957886680491432</v>
       </c>
       <c r="G26">
-        <v>0.0004316534780709341</v>
+        <v>0.0007319341584681058</v>
       </c>
       <c r="H26">
-        <v>3.30678183900698E-05</v>
+        <v>5.607151813968356E-05</v>
       </c>
       <c r="I26">
-        <v>0.0059144653862303</v>
+        <v>0.01002887608969485</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1154,28 +1154,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>0.0035031614118413</v>
+        <v>0.005940143263556987</v>
       </c>
       <c r="C27">
-        <v>0.0004114125000000001</v>
+        <v>0.0006976125000000001</v>
       </c>
       <c r="D27">
-        <v>9.071542963237128E-05</v>
+        <v>0.000153821815463586</v>
       </c>
       <c r="E27">
-        <v>8.618848437693248E-05</v>
+        <v>0.0001461456909000159</v>
       </c>
       <c r="F27">
-        <v>0.0005461665214322273</v>
+        <v>0.0009261084493850816</v>
       </c>
       <c r="G27">
-        <v>0.000372606540032929</v>
+        <v>0.0006318110896210532</v>
       </c>
       <c r="H27">
-        <v>2.528715523946514E-05</v>
+        <v>4.287821975387566E-05</v>
       </c>
       <c r="I27">
-        <v>0.005035538042555225</v>
+        <v>0.0085385210286806</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1183,28 +1183,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>0.003763283163164466</v>
+        <v>0.006381219276670183</v>
       </c>
       <c r="C28">
-        <v>0.0007313999999999999</v>
+        <v>0.0012402</v>
       </c>
       <c r="D28">
-        <v>0.0001360731444485569</v>
+        <v>0.0002307327231953791</v>
       </c>
       <c r="E28">
-        <v>9.594567128752863E-05</v>
+        <v>0.0001626904860962442</v>
       </c>
       <c r="F28">
-        <v>0.0004069476042044048</v>
+        <v>0.0006900415897379039</v>
       </c>
       <c r="G28">
-        <v>0.0003318845137998219</v>
+        <v>0.0005627606973127413</v>
       </c>
       <c r="H28">
-        <v>1.750649208886048E-05</v>
+        <v>2.968492136806777E-05</v>
       </c>
       <c r="I28">
-        <v>0.005483040588993638</v>
+        <v>0.009297329694380518</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1212,28 +1212,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>0.003401374639584413</v>
+        <v>0.005767548301904003</v>
       </c>
       <c r="C29">
-        <v>0.0003504625</v>
+        <v>0.0005942625000000002</v>
       </c>
       <c r="D29">
-        <v>0.0001231137973582182</v>
+        <v>0.0002087581781291526</v>
       </c>
       <c r="E29">
-        <v>0.0001040766603796921</v>
+        <v>0.0001764778154264344</v>
       </c>
       <c r="F29">
-        <v>0.0003587564405486199</v>
+        <v>0.000608326138321573</v>
       </c>
       <c r="G29">
-        <v>0.000209718435100501</v>
+        <v>0.000355609520387806</v>
       </c>
       <c r="H29">
-        <v>3.890331575302329E-06</v>
+        <v>6.59664919290395E-06</v>
       </c>
       <c r="I29">
-        <v>0.004551392804546747</v>
+        <v>0.007717579103361874</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1241,28 +1241,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>0.003571019260012561</v>
+        <v>0.006055206571325648</v>
       </c>
       <c r="C30">
-        <v>0.0003809374999999999</v>
+        <v>0.0006459375000000001</v>
       </c>
       <c r="D30">
-        <v>0.0001166341238130488</v>
+        <v>0.0001977709055960393</v>
       </c>
       <c r="E30">
-        <v>8.618848437693248E-05</v>
+        <v>0.0001461456909000159</v>
       </c>
       <c r="F30">
-        <v>0.0005515210951717589</v>
+        <v>0.0009351879439868957</v>
       </c>
       <c r="G30">
-        <v>0.000256548765268574</v>
+        <v>0.0004350174715423647</v>
       </c>
       <c r="H30">
-        <v>1.556132630120931E-05</v>
+        <v>2.63865967716158E-05</v>
       </c>
       <c r="I30">
-        <v>0.004978410554944084</v>
+        <v>0.008441652680122581</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1270,28 +1270,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>0.0036501867495457</v>
+        <v>0.00618944709705575</v>
       </c>
       <c r="C31">
-        <v>0.0003809374999999999</v>
+        <v>0.0006459375000000001</v>
       </c>
       <c r="D31">
-        <v>0.0001231137973582182</v>
+        <v>0.0002087581781291526</v>
       </c>
       <c r="E31">
-        <v>9.106707783223058E-05</v>
+        <v>0.00015441808849813</v>
       </c>
       <c r="F31">
-        <v>0.0004390750466415946</v>
+        <v>0.000744518557348791</v>
       </c>
       <c r="G31">
-        <v>0.0002382238534636759</v>
+        <v>0.0004039447950036243</v>
       </c>
       <c r="H31">
-        <v>3.890331575302329E-05</v>
+        <v>6.596649192903949E-05</v>
       </c>
       <c r="I31">
-        <v>0.004961507340594442</v>
+        <v>0.008412990707964488</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1299,28 +1299,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>0.00429483630717267</v>
+        <v>0.007282548520858004</v>
       </c>
       <c r="C32">
-        <v>0.0004114125000000001</v>
+        <v>0.0006976125000000001</v>
       </c>
       <c r="D32">
-        <v>7.775608254203253E-05</v>
+        <v>0.0001318472703973595</v>
       </c>
       <c r="E32">
-        <v>9.919806692439403E-05</v>
+        <v>0.0001682054178283202</v>
       </c>
       <c r="F32">
-        <v>0.0005193936527345691</v>
+        <v>0.0008807109763760089</v>
       </c>
       <c r="G32">
-        <v>0.0002239711442820883</v>
+        <v>0.0003797771576957151</v>
       </c>
       <c r="H32">
-        <v>2.72323210271163E-05</v>
+        <v>4.617654435032764E-05</v>
       </c>
       <c r="I32">
-        <v>0.005653800074682871</v>
+        <v>0.009586878387505736</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1328,28 +1328,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>0.004721775268583517</v>
+        <v>0.008006488498902484</v>
       </c>
       <c r="C33">
-        <v>0.00030475</v>
+        <v>0.0005167500000000001</v>
       </c>
       <c r="D33">
-        <v>0.0002138292269905894</v>
+        <v>0.0003625799935927387</v>
       </c>
       <c r="E33">
-        <v>0.0001008242647428267</v>
+        <v>0.0001709628836943583</v>
       </c>
       <c r="F33">
-        <v>0.0005274255133438667</v>
+        <v>0.0008943302182787303</v>
       </c>
       <c r="G33">
-        <v>0.0002137906377238116</v>
+        <v>0.0003625145596186374</v>
       </c>
       <c r="H33">
-        <v>1.945165787651164E-05</v>
+        <v>3.298324596451975E-05</v>
       </c>
       <c r="I33">
-        <v>0.006101846569261123</v>
+        <v>0.01034660940005147</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1357,28 +1357,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>0.005756607453195227</v>
+        <v>0.009761203942374522</v>
       </c>
       <c r="C34">
-        <v>0.0004114125000000001</v>
+        <v>0.0006976125000000001</v>
       </c>
       <c r="D34">
-        <v>0.0001263536341308028</v>
+        <v>0.0002142518143957091</v>
       </c>
       <c r="E34">
-        <v>0.0001024504625612593</v>
+        <v>0.0001737203495603963</v>
       </c>
       <c r="F34">
-        <v>0.0003159198506323669</v>
+        <v>0.0005356901815070568</v>
       </c>
       <c r="G34">
-        <v>8.144405246621399E-05</v>
+        <v>0.0001381007846166238</v>
       </c>
       <c r="H34">
-        <v>4.279364732832561E-05</v>
+        <v>7.256314112194344E-05</v>
       </c>
       <c r="I34">
-        <v>0.006836981600314195</v>
+        <v>0.01159314271357625</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1386,28 +1386,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>0.005544551677660043</v>
+        <v>0.009401631105597462</v>
       </c>
       <c r="C35">
-        <v>0.0003656999999999999</v>
+        <v>0.0006200999999999999</v>
       </c>
       <c r="D35">
-        <v>0.0001069146134952947</v>
+        <v>0.0001812899967963693</v>
       </c>
       <c r="E35">
-        <v>0.000120338638564019</v>
+        <v>0.0002040524740868147</v>
       </c>
       <c r="F35">
-        <v>0.0002248920970603289</v>
+        <v>0.0003813387732762101</v>
       </c>
       <c r="G35">
-        <v>5.090253279138376E-05</v>
+        <v>8.631299038538981E-05</v>
       </c>
       <c r="H35">
-        <v>7.780663150604657E-06</v>
+        <v>1.31932983858079E-05</v>
       </c>
       <c r="I35">
-        <v>0.006421080222721674</v>
+        <v>0.01088791863852805</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1415,28 +1415,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>0.003989475990401999</v>
+        <v>0.006764763635899041</v>
       </c>
       <c r="C36">
-        <v>0.0005028375</v>
+        <v>0.0008526375000000002</v>
       </c>
       <c r="D36">
-        <v>9.395526640495597E-05</v>
+        <v>0.0001593154517301427</v>
       </c>
       <c r="E36">
-        <v>0.0001138338472902882</v>
+        <v>0.0001930226106226626</v>
       </c>
       <c r="F36">
-        <v>0.0001418962040975885</v>
+        <v>0.0002406066069480848</v>
       </c>
       <c r="G36">
-        <v>6.922744459628193E-05</v>
+        <v>0.0001173856669241302</v>
       </c>
       <c r="H36">
-        <v>3.890331575302329E-06</v>
+        <v>6.59664919290395E-06</v>
       </c>
       <c r="I36">
-        <v>0.004915116584366416</v>
+        <v>0.008334328121316965</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1444,28 +1444,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>0.002878303726597613</v>
+        <v>0.004880601971187261</v>
       </c>
       <c r="C37">
-        <v>0.00079235</v>
+        <v>0.00134355</v>
       </c>
       <c r="D37">
-        <v>6.803657222427846E-05</v>
+        <v>0.0001153663615976895</v>
       </c>
       <c r="E37">
-        <v>9.757186910596132E-05</v>
+        <v>0.0001654479519622822</v>
       </c>
       <c r="F37">
-        <v>0.0001151233353999303</v>
+        <v>0.0001952091339390122</v>
       </c>
       <c r="G37">
-        <v>7.126354590793725E-05</v>
+        <v>0.0001208381865395457</v>
       </c>
       <c r="H37">
-        <v>9.725828938255822E-06</v>
+        <v>1.649162298225987E-05</v>
       </c>
       <c r="I37">
-        <v>0.004032374878173976</v>
+        <v>0.006837505228208052</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1473,28 +1473,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.002157314089777977</v>
+        <v>0.003658054326145266</v>
       </c>
       <c r="C38">
-        <v>0.0004571250000000001</v>
+        <v>0.0007751250000000003</v>
       </c>
       <c r="D38">
-        <v>3.563820449843158E-05</v>
+        <v>6.042999893212312E-05</v>
       </c>
       <c r="E38">
-        <v>9.594567128752863E-05</v>
+        <v>0.0001626904860962442</v>
       </c>
       <c r="F38">
-        <v>7.228674548367713E-05</v>
+        <v>0.0001225731771244961</v>
       </c>
       <c r="G38">
-        <v>3.664982360979626E-05</v>
+        <v>6.214535307748066E-05</v>
       </c>
       <c r="H38">
-        <v>9.725828938255822E-06</v>
+        <v>1.649162298225987E-05</v>
       </c>
       <c r="I38">
-        <v>0.002864685363595666</v>
+        <v>0.004857509964357871</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1502,28 +1502,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.001359984373765671</v>
+        <v>0.002306060459863529</v>
       </c>
       <c r="C39">
-        <v>0.0006095</v>
+        <v>0.0010335</v>
       </c>
       <c r="D39">
-        <v>3.563820449843158E-05</v>
+        <v>6.042999893212312E-05</v>
       </c>
       <c r="E39">
-        <v>5.366452800827872E-05</v>
+        <v>9.099637357925518E-05</v>
       </c>
       <c r="F39">
-        <v>6.425488487437969E-05</v>
+        <v>0.0001089539352217743</v>
       </c>
       <c r="G39">
-        <v>2.646931705151955E-05</v>
+        <v>4.488275500040268E-05</v>
       </c>
       <c r="H39">
-        <v>3.890331575302329E-06</v>
+        <v>6.59664919290395E-06</v>
       </c>
       <c r="I39">
-        <v>0.002153401639773582</v>
+        <v>0.003651420171789988</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1531,28 +1531,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.0008001571263527752</v>
+        <v>0.001356788170772098</v>
       </c>
       <c r="C40">
-        <v>0.0003504625</v>
+        <v>0.0005942625000000002</v>
       </c>
       <c r="D40">
-        <v>1.295934709033875E-05</v>
+        <v>2.197454506622658E-05</v>
       </c>
       <c r="E40">
-        <v>2.439296727649033E-05</v>
+        <v>4.136198799057056E-05</v>
       </c>
       <c r="F40">
-        <v>5.890031113484806E-05</v>
+        <v>9.987444061995978E-05</v>
       </c>
       <c r="G40">
-        <v>4.479422885641766E-05</v>
+        <v>7.595543153914299E-05</v>
       </c>
       <c r="H40">
-        <v>3.890331575302329E-06</v>
+        <v>6.59664919290395E-06</v>
       </c>
       <c r="I40">
-        <v>0.001295556812286172</v>
+        <v>0.002196813725180902</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1560,28 +1560,28 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.0004834871682202282</v>
+        <v>0.0008198260678516912</v>
       </c>
       <c r="C41">
-        <v>0.0002590375</v>
+        <v>0.0004392375</v>
       </c>
       <c r="D41">
-        <v>3.239836772584688E-06</v>
+        <v>5.493636266556646E-06</v>
       </c>
       <c r="E41">
-        <v>9.757186910596135E-06</v>
+        <v>1.654479519622822E-05</v>
       </c>
       <c r="F41">
-        <v>8.567317983250626E-05</v>
+        <v>0.0001452719136290323</v>
       </c>
       <c r="G41">
-        <v>4.275812754476236E-05</v>
+        <v>7.250291192372745E-05</v>
       </c>
       <c r="H41">
-        <v>1.945165787651164E-06</v>
+        <v>3.298324596451975E-06</v>
       </c>
       <c r="I41">
-        <v>0.0008858981650683287</v>
+        <v>0.001502175149463688</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,25 +1589,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.0003619085235800537</v>
+        <v>0.0006136709747661784</v>
       </c>
       <c r="C42">
-        <v>0.000396175</v>
+        <v>0.0006717750000000001</v>
       </c>
       <c r="D42">
-        <v>6.479673545169376E-06</v>
+        <v>1.098727253311329E-05</v>
       </c>
       <c r="E42">
-        <v>3.252395636865377E-06</v>
+        <v>5.514931732076074E-06</v>
       </c>
       <c r="F42">
-        <v>7.228674548367713E-05</v>
+        <v>0.0001225731771244961</v>
       </c>
       <c r="G42">
-        <v>3.054151967483023E-05</v>
+        <v>5.17877942312339E-05</v>
       </c>
       <c r="I42">
-        <v>0.0008706438579205959</v>
+        <v>0.001476309150387098</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1615,25 +1615,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.0002120557755351877</v>
+        <v>0.0003595728367770577</v>
       </c>
       <c r="C43">
-        <v>0.00018285</v>
+        <v>0.00031005</v>
       </c>
       <c r="D43">
-        <v>9.719510317754066E-06</v>
+        <v>1.648090879966993E-05</v>
       </c>
       <c r="E43">
-        <v>1.626197818432688E-06</v>
+        <v>2.757465866038037E-06</v>
       </c>
       <c r="F43">
-        <v>5.622302426508222E-05</v>
+        <v>9.533469331905253E-05</v>
       </c>
       <c r="G43">
-        <v>4.479422885641766E-05</v>
+        <v>7.595543153914299E-05</v>
       </c>
       <c r="I43">
-        <v>0.0005072687367928743</v>
+        <v>0.0008601513363009612</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.0002883958547278553</v>
+        <v>0.0004890190580167984</v>
       </c>
       <c r="C44">
-        <v>0.0001371375</v>
+        <v>0.0002325375</v>
       </c>
       <c r="D44">
-        <v>9.719510317754066E-06</v>
+        <v>1.648090879966993E-05</v>
       </c>
       <c r="E44">
-        <v>1.300958254746151E-05</v>
+        <v>2.205972692830429E-05</v>
       </c>
       <c r="F44">
-        <v>5.35457373953164E-05</v>
+        <v>9.079494601814522E-05</v>
       </c>
       <c r="G44">
-        <v>2.44332157398642E-05</v>
+        <v>4.143023538498712E-05</v>
       </c>
       <c r="I44">
-        <v>0.0005262414007282515</v>
+        <v>0.0008923223751479049</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.00057961911979618</v>
+        <v>0.0009828324205239576</v>
       </c>
       <c r="C45">
-        <v>0.000213325</v>
+        <v>0.0003617250000000001</v>
       </c>
       <c r="D45">
-        <v>9.719510317754066E-06</v>
+        <v>1.648090879966993E-05</v>
       </c>
       <c r="E45">
-        <v>8.130989092163443E-06</v>
+        <v>1.378732933019018E-05</v>
       </c>
       <c r="F45">
-        <v>7.228674548367713E-05</v>
+        <v>0.0001225731771244961</v>
       </c>
       <c r="G45">
-        <v>5.090253279138376E-05</v>
+        <v>8.631299038538981E-05</v>
       </c>
       <c r="H45">
-        <v>5.835497362953491E-06</v>
+        <v>9.894973789355925E-06</v>
       </c>
       <c r="I45">
-        <v>0.0009398193948441119</v>
+        <v>0.00159360679995306</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.001719065487005256</v>
+        <v>0.002914937130139345</v>
       </c>
       <c r="C46">
-        <v>0.000274275</v>
+        <v>0.0004650750000000001</v>
       </c>
       <c r="D46">
-        <v>6.155689867910912E-05</v>
+        <v>0.0001043790890645763</v>
       </c>
       <c r="E46">
-        <v>3.577635200551915E-05</v>
+        <v>6.066424905283682E-05</v>
       </c>
       <c r="F46">
-        <v>0.0001659917859254809</v>
+        <v>0.0002814643326562504</v>
       </c>
       <c r="G46">
-        <v>9.773286295945681E-05</v>
+        <v>0.0001657209415399485</v>
       </c>
       <c r="H46">
-        <v>1.945165787651164E-06</v>
+        <v>3.298324596451975E-06</v>
       </c>
       <c r="I46">
-        <v>0.002356343552362472</v>
+        <v>0.003995539067049409</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>0.002917887471364183</v>
+        <v>0.004947722234052315</v>
       </c>
       <c r="C47">
-        <v>0.0001980875</v>
+        <v>0.0003358875000000001</v>
       </c>
       <c r="D47">
-        <v>8.423575608720193E-05</v>
+        <v>0.0001428345429304727</v>
       </c>
       <c r="E47">
-        <v>9.594567128752863E-05</v>
+        <v>0.0001626904860962442</v>
       </c>
       <c r="F47">
-        <v>0.0002275693839300948</v>
+        <v>0.0003858785205771174</v>
       </c>
       <c r="G47">
-        <v>0.0001343826865692531</v>
+        <v>0.0002278662946174291</v>
       </c>
       <c r="H47">
-        <v>2.334198945181397E-05</v>
+        <v>3.95798951574237E-05</v>
       </c>
       <c r="I47">
-        <v>0.003681450458690075</v>
+        <v>0.006242459473431001</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>0.004583232161900526</v>
+        <v>0.007771567578874801</v>
       </c>
       <c r="C48">
-        <v>0.0001980875</v>
+        <v>0.0003358875000000001</v>
       </c>
       <c r="D48">
-        <v>8.423575608720193E-05</v>
+        <v>0.0001428345429304727</v>
       </c>
       <c r="E48">
-        <v>0.000120338638564019</v>
+        <v>0.0002040524740868147</v>
       </c>
       <c r="F48">
-        <v>0.0003400154324602593</v>
+        <v>0.0005765479072152222</v>
       </c>
       <c r="G48">
-        <v>0.0001527075983741512</v>
+        <v>0.0002589389711561694</v>
       </c>
       <c r="H48">
-        <v>4.084848154067445E-05</v>
+        <v>6.926481652549146E-05</v>
       </c>
       <c r="I48">
-        <v>0.005519465568926831</v>
+        <v>0.009359093790788971</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>0.004455998696579411</v>
+        <v>0.00755582387680857</v>
       </c>
       <c r="C49">
-        <v>0.000335225</v>
+        <v>0.000568425</v>
       </c>
       <c r="D49">
-        <v>9.071542963237128E-05</v>
+        <v>0.000153821815463586</v>
       </c>
       <c r="E49">
-        <v>0.0001138338472902882</v>
+        <v>0.0001930226106226626</v>
       </c>
       <c r="F49">
-        <v>0.000283792408195177</v>
+        <v>0.0004812132138961696</v>
       </c>
       <c r="G49">
-        <v>0.0001832491180489815</v>
+        <v>0.0003107267653874034</v>
       </c>
       <c r="H49">
-        <v>7.780663150604657E-06</v>
+        <v>1.31932983858079E-05</v>
       </c>
       <c r="I49">
-        <v>0.005470595162896833</v>
+        <v>0.009276226580564199</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_SOx.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>2.653226005043924</v>
+        <v>1.560872192614132</v>
       </c>
       <c r="C2">
-        <v>0.03571776</v>
+        <v>0.02101247999999999</v>
       </c>
       <c r="D2">
-        <v>0.1811498599013807</v>
+        <v>0.106569051591717</v>
       </c>
       <c r="E2">
-        <v>0.3948772201133987</v>
+        <v>0.2323031928678728</v>
       </c>
       <c r="F2">
-        <v>0.2775915566207522</v>
+        <v>0.1633049505809554</v>
       </c>
       <c r="G2">
-        <v>1.681364195567348</v>
+        <v>0.9891334599951103</v>
       </c>
       <c r="H2">
-        <v>0.1564176714283531</v>
+        <v>0.09201929775369</v>
       </c>
       <c r="I2">
-        <v>5.380344268675157</v>
+        <v>3.165214625403478</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1.973314993211192</v>
+        <v>1.160885840224871</v>
       </c>
       <c r="C3">
-        <v>0.03720600000000001</v>
+        <v>0.021888</v>
       </c>
       <c r="D3">
-        <v>0.1769370724618136</v>
+        <v>0.1040907015547003</v>
       </c>
       <c r="E3">
-        <v>0.2778765623020213</v>
+        <v>0.1634726172033178</v>
       </c>
       <c r="F3">
-        <v>0.2894319547704527</v>
+        <v>0.1702705645867781</v>
       </c>
       <c r="G3">
-        <v>1.181713514809127</v>
+        <v>0.6951928563173188</v>
       </c>
       <c r="H3">
-        <v>0.1196135134452112</v>
+        <v>0.07036769828223353</v>
       </c>
       <c r="I3">
-        <v>4.056093610999818</v>
+        <v>2.386168278169219</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>2.134116569274461</v>
+        <v>1.255484154928758</v>
       </c>
       <c r="C4">
-        <v>0.04018247999999999</v>
+        <v>0.02363904</v>
       </c>
       <c r="D4">
-        <v>0.1474475603848449</v>
+        <v>0.08674225129558349</v>
       </c>
       <c r="E4">
-        <v>0.3948772201133987</v>
+        <v>0.2323031928678728</v>
       </c>
       <c r="F4">
-        <v>0.238123562788418</v>
+        <v>0.1400862372282129</v>
       </c>
       <c r="G4">
-        <v>1.16585158843585</v>
+        <v>0.6858614085815156</v>
       </c>
       <c r="H4">
-        <v>0.05520623697471282</v>
+        <v>0.0324773992071847</v>
       </c>
       <c r="I4">
-        <v>4.175805217971685</v>
+        <v>2.456593684109127</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1.989045582173903</v>
+        <v>1.170140023185035</v>
       </c>
       <c r="C5">
-        <v>0.04911192000000001</v>
+        <v>0.02889216000000002</v>
       </c>
       <c r="D5">
-        <v>0.1937882222200818</v>
+        <v>0.114004101702767</v>
       </c>
       <c r="E5">
-        <v>0.321751808981288</v>
+        <v>0.1892840830775259</v>
       </c>
       <c r="F5">
-        <v>0.1999711687504946</v>
+        <v>0.1176414809872286</v>
       </c>
       <c r="G5">
-        <v>1.054818103822912</v>
+        <v>0.620541274430895</v>
       </c>
       <c r="H5">
-        <v>0.1012114344536402</v>
+        <v>0.05954189854650528</v>
       </c>
       <c r="I5">
-        <v>3.90969824040232</v>
+        <v>2.300045021929957</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>2.065950683769379</v>
+        <v>1.215382695434721</v>
       </c>
       <c r="C6">
-        <v>0.05952960000000002</v>
+        <v>0.03502080000000001</v>
       </c>
       <c r="D6">
-        <v>0.1642987101431127</v>
+        <v>0.09665565144365024</v>
       </c>
       <c r="E6">
-        <v>0.4168148434530319</v>
+        <v>0.245208925804977</v>
       </c>
       <c r="F6">
-        <v>0.2315455638163623</v>
+        <v>0.1362164516694225</v>
       </c>
       <c r="G6">
-        <v>1.094472919756105</v>
+        <v>0.6438698937704027</v>
       </c>
       <c r="H6">
-        <v>0.1104124739494256</v>
+        <v>0.06495479841436939</v>
       </c>
       <c r="I6">
-        <v>4.143024794887416</v>
+        <v>2.437309216537543</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>2.030993819407798</v>
+        <v>1.194817844412135</v>
       </c>
       <c r="C7">
-        <v>0.04762367999999999</v>
+        <v>0.02801664</v>
       </c>
       <c r="D7">
-        <v>0.2022137970992156</v>
+        <v>0.1189608017768003</v>
       </c>
       <c r="E7">
-        <v>0.3144392678680768</v>
+        <v>0.1849821720984913</v>
       </c>
       <c r="F7">
-        <v>0.2604887592934075</v>
+        <v>0.1532435081281005</v>
       </c>
       <c r="G7">
-        <v>1.118265809316017</v>
+        <v>0.6578670653741068</v>
       </c>
       <c r="H7">
-        <v>0.1012114344536402</v>
+        <v>0.05954189854650528</v>
       </c>
       <c r="I7">
-        <v>4.075236567438155</v>
+        <v>2.397429930336139</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>2.139360098928698</v>
+        <v>1.258568882582146</v>
       </c>
       <c r="C8">
-        <v>0.05208839999999999</v>
+        <v>0.03064319999999999</v>
       </c>
       <c r="D8">
-        <v>0.1390219855057107</v>
+        <v>0.08178555122155019</v>
       </c>
       <c r="E8">
-        <v>0.3363768912077103</v>
+        <v>0.1978879050355953</v>
       </c>
       <c r="F8">
-        <v>0.2341767634051846</v>
+        <v>0.1377643658929386</v>
       </c>
       <c r="G8">
-        <v>0.8565440241569509</v>
+        <v>0.5038981777333582</v>
       </c>
       <c r="H8">
-        <v>0.1288145529409966</v>
+        <v>0.07578059815009766</v>
       </c>
       <c r="I8">
-        <v>3.886382716145251</v>
+        <v>2.286328680615686</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>2.918898174191929</v>
+        <v>1.717165060385772</v>
       </c>
       <c r="C9">
-        <v>0.02976480000000001</v>
+        <v>0.01751040000000001</v>
       </c>
       <c r="D9">
-        <v>0.2780439710114214</v>
+        <v>0.1635711024431004</v>
       </c>
       <c r="E9">
-        <v>0.4533775490190879</v>
+        <v>0.2667184807001501</v>
       </c>
       <c r="F9">
-        <v>0.2591731594989968</v>
+        <v>0.1524695510163423</v>
       </c>
       <c r="G9">
-        <v>0.8327511345970356</v>
+        <v>0.4899010061296543</v>
       </c>
       <c r="H9">
-        <v>0.09201039495785474</v>
+        <v>0.05412899867864118</v>
       </c>
       <c r="I9">
-        <v>4.864019183276326</v>
+        <v>2.861464599353659</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>3.558608792008846</v>
+        <v>2.093501834099059</v>
       </c>
       <c r="C10">
-        <v>0.04018247999999999</v>
+        <v>0.02363904</v>
       </c>
       <c r="D10">
-        <v>0.1642987101431127</v>
+        <v>0.09665565144365024</v>
       </c>
       <c r="E10">
-        <v>0.4606900901322986</v>
+        <v>0.2710203916791848</v>
       </c>
       <c r="F10">
-        <v>0.1552407757405154</v>
+        <v>0.09132693918745372</v>
       </c>
       <c r="G10">
-        <v>0.3172385274655374</v>
+        <v>0.1866289547160587</v>
       </c>
       <c r="H10">
-        <v>0.2024228689072804</v>
+        <v>0.1190837970930106</v>
       </c>
       <c r="I10">
-        <v>4.898682244397592</v>
+        <v>2.881856608218416</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>3.427520550652923</v>
+        <v>2.016383642764371</v>
       </c>
       <c r="C11">
-        <v>0.03571776</v>
+        <v>0.02101247999999999</v>
       </c>
       <c r="D11">
-        <v>0.1390219855057107</v>
+        <v>0.08178555122155019</v>
       </c>
       <c r="E11">
-        <v>0.5411280423776209</v>
+        <v>0.3183414124485664</v>
       </c>
       <c r="F11">
-        <v>0.1105103827305365</v>
+        <v>0.06501239738767889</v>
       </c>
       <c r="G11">
-        <v>0.1982740796659608</v>
+        <v>0.1166430966975366</v>
       </c>
       <c r="H11">
-        <v>0.03680415798314188</v>
+        <v>0.02165159947145646</v>
       </c>
       <c r="I11">
-        <v>4.488976958915893</v>
+        <v>2.64083017999116</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>2.466206780709471</v>
+        <v>1.450850239643306</v>
       </c>
       <c r="C12">
-        <v>0.04911192000000001</v>
+        <v>0.02889216000000002</v>
       </c>
       <c r="D12">
-        <v>0.1221708357474429</v>
+        <v>0.07187215107348352</v>
       </c>
       <c r="E12">
-        <v>0.5118778779247762</v>
+        <v>0.3011337685324276</v>
       </c>
       <c r="F12">
-        <v>0.06972678910379092</v>
+        <v>0.04101972692317835</v>
       </c>
       <c r="G12">
-        <v>0.2696527483457064</v>
+        <v>0.1586346115086499</v>
       </c>
       <c r="H12">
-        <v>0.01840207899157094</v>
+        <v>0.01082579973572823</v>
       </c>
       <c r="I12">
-        <v>3.507149030822759</v>
+        <v>2.063228457416774</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1.779304396004423</v>
+        <v>1.046750917049529</v>
       </c>
       <c r="C13">
-        <v>0.07738848000000001</v>
+        <v>0.04552704</v>
       </c>
       <c r="D13">
-        <v>0.08846853623090682</v>
+        <v>0.05204535077735017</v>
       </c>
       <c r="E13">
-        <v>0.4387524667926656</v>
+        <v>0.2581146587420808</v>
       </c>
       <c r="F13">
-        <v>0.05657079115967939</v>
+        <v>0.03328015580559752</v>
       </c>
       <c r="G13">
-        <v>0.2775837115323453</v>
+        <v>0.1633003353765512</v>
       </c>
       <c r="H13">
-        <v>0.04600519747892737</v>
+        <v>0.02706449933932059</v>
       </c>
       <c r="I13">
-        <v>2.764073579198948</v>
+        <v>1.62608295709043</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>1.333604375394277</v>
+        <v>0.7845490665115828</v>
       </c>
       <c r="C14">
-        <v>0.0446472</v>
+        <v>0.02626559999999999</v>
       </c>
       <c r="D14">
-        <v>0.04634066183523694</v>
+        <v>0.02726185040718338</v>
       </c>
       <c r="E14">
-        <v>0.4314399256794541</v>
+        <v>0.253812747763046</v>
       </c>
       <c r="F14">
-        <v>0.03552119444910103</v>
+        <v>0.02089684201746821</v>
       </c>
       <c r="G14">
-        <v>0.1427573373594917</v>
+        <v>0.08398302962222642</v>
       </c>
       <c r="H14">
-        <v>0.04600519747892737</v>
+        <v>0.02706449933932059</v>
       </c>
       <c r="I14">
-        <v>2.080315892196489</v>
+        <v>1.223833635660827</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.8407125878959992</v>
+        <v>0.4945846670931471</v>
       </c>
       <c r="C15">
-        <v>0.05952960000000002</v>
+        <v>0.03502080000000001</v>
       </c>
       <c r="D15">
-        <v>0.04634066183523694</v>
+        <v>0.02726185040718338</v>
       </c>
       <c r="E15">
-        <v>0.2413138567359659</v>
+        <v>0.1419630623081444</v>
       </c>
       <c r="F15">
-        <v>0.03157439506586755</v>
+        <v>0.01857497068219398</v>
       </c>
       <c r="G15">
-        <v>0.1031025214262996</v>
+        <v>0.06065441028271906</v>
       </c>
       <c r="H15">
-        <v>0.01840207899157094</v>
+        <v>0.01082579973572823</v>
       </c>
       <c r="I15">
-        <v>1.34097570195094</v>
+        <v>0.7888855605091162</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.494639630716357</v>
+        <v>0.2909926419695646</v>
       </c>
       <c r="C16">
-        <v>0.03422952</v>
+        <v>0.02013696</v>
       </c>
       <c r="D16">
-        <v>0.01685114975826796</v>
+        <v>0.009913400148066699</v>
       </c>
       <c r="E16">
-        <v>0.1096881166981664</v>
+        <v>0.0645286646855202</v>
       </c>
       <c r="F16">
-        <v>0.02894319547704528</v>
+        <v>0.01702705645867781</v>
       </c>
       <c r="G16">
-        <v>0.1744811901060455</v>
+        <v>0.1026459250938323</v>
       </c>
       <c r="H16">
-        <v>0.01840207899157094</v>
+        <v>0.01082579973572823</v>
       </c>
       <c r="I16">
-        <v>0.877234881747453</v>
+        <v>0.5160704480913898</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,28 +873,28 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.2988811902915093</v>
+        <v>0.175829476243094</v>
       </c>
       <c r="C17">
-        <v>0.02530008000000001</v>
+        <v>0.01488383999999999</v>
       </c>
       <c r="D17">
-        <v>0.00421278743956699</v>
+        <v>0.002478350037016675</v>
       </c>
       <c r="E17">
-        <v>0.04387524667926652</v>
+        <v>0.02581146587420808</v>
       </c>
       <c r="F17">
-        <v>0.04209919342115673</v>
+        <v>0.02476662757625863</v>
       </c>
       <c r="G17">
-        <v>0.1665502269194071</v>
+        <v>0.09798020122593083</v>
       </c>
       <c r="H17">
-        <v>0.009201039495785471</v>
+        <v>0.005412899867864116</v>
       </c>
       <c r="I17">
-        <v>0.5901197642466921</v>
+        <v>0.3471628608243724</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -902,25 +902,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.2237239319141118</v>
+        <v>0.1316150465445382</v>
       </c>
       <c r="C18">
-        <v>0.03869424</v>
+        <v>0.02276352</v>
       </c>
       <c r="D18">
-        <v>0.008425574879133979</v>
+        <v>0.004956700074033349</v>
       </c>
       <c r="E18">
-        <v>0.01462508222642218</v>
+        <v>0.008603821958069363</v>
       </c>
       <c r="F18">
-        <v>0.03552119444910103</v>
+        <v>0.02089684201746821</v>
       </c>
       <c r="G18">
-        <v>0.1189644477995765</v>
+        <v>0.069985858018522</v>
       </c>
       <c r="I18">
-        <v>0.4399544712683455</v>
+        <v>0.2588217886126311</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.131088241355925</v>
+        <v>0.07711819133469038</v>
       </c>
       <c r="C19">
-        <v>0.01785888</v>
+        <v>0.01050624</v>
       </c>
       <c r="D19">
-        <v>0.01263836231870098</v>
+        <v>0.007435050111050019</v>
       </c>
       <c r="E19">
-        <v>0.00731254111321109</v>
+        <v>0.004301910979034681</v>
       </c>
       <c r="F19">
-        <v>0.02762759568263413</v>
+        <v>0.01625309934691972</v>
       </c>
       <c r="G19">
-        <v>0.1744811901060455</v>
+        <v>0.1026459250938323</v>
       </c>
       <c r="I19">
-        <v>0.3710068105765166</v>
+        <v>0.2182604168655271</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,25 +954,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.178280008244058</v>
+        <v>0.1048807402151788</v>
       </c>
       <c r="C20">
-        <v>0.01339416</v>
+        <v>0.00787968</v>
       </c>
       <c r="D20">
-        <v>0.01263836231870098</v>
+        <v>0.007435050111050019</v>
       </c>
       <c r="E20">
-        <v>0.05850032890568872</v>
+        <v>0.03441528783227745</v>
       </c>
       <c r="F20">
-        <v>0.02631199588822298</v>
+        <v>0.01547914223516165</v>
       </c>
       <c r="G20">
-        <v>0.09517155823966121</v>
+        <v>0.05598868641481766</v>
       </c>
       <c r="I20">
-        <v>0.3842964135963319</v>
+        <v>0.2260785868084856</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -980,28 +980,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.3583078597061952</v>
+        <v>0.2107897229814869</v>
       </c>
       <c r="C21">
-        <v>0.02083536</v>
+        <v>0.01225728</v>
       </c>
       <c r="D21">
-        <v>0.01263836231870098</v>
+        <v>0.007435050111050019</v>
       </c>
       <c r="E21">
-        <v>0.03656270556605544</v>
+        <v>0.02150955489517339</v>
       </c>
       <c r="F21">
-        <v>0.03552119444910103</v>
+        <v>0.02089684201746821</v>
       </c>
       <c r="G21">
-        <v>0.1982740796659608</v>
+        <v>0.1166430966975366</v>
       </c>
       <c r="H21">
-        <v>0.02760311848735641</v>
+        <v>0.01623869960359235</v>
       </c>
       <c r="I21">
-        <v>0.6897426801933699</v>
+        <v>0.4057702463063076</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1009,28 +1009,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>1.062688676592033</v>
+        <v>0.6251714710865566</v>
       </c>
       <c r="C22">
-        <v>0.02678832000000001</v>
+        <v>0.01575936</v>
       </c>
       <c r="D22">
-        <v>0.08004296135177288</v>
+        <v>0.04708865070331679</v>
       </c>
       <c r="E22">
-        <v>0.160875904490644</v>
+        <v>0.09464204153876295</v>
       </c>
       <c r="F22">
-        <v>0.08156718725349116</v>
+        <v>0.04798534092900111</v>
       </c>
       <c r="G22">
-        <v>0.3806862329586448</v>
+        <v>0.2239547456592706</v>
       </c>
       <c r="H22">
-        <v>0.009201039495785471</v>
+        <v>0.005412899867864116</v>
       </c>
       <c r="I22">
-        <v>1.801850322142372</v>
+        <v>1.060014509784772</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1038,28 +1038,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1.803774201057529</v>
+        <v>1.061146312765339</v>
       </c>
       <c r="C23">
-        <v>0.01934712</v>
+        <v>0.01138176</v>
       </c>
       <c r="D23">
-        <v>0.1095324734287419</v>
+        <v>0.06443710096243348</v>
       </c>
       <c r="E23">
-        <v>0.4314399256794541</v>
+        <v>0.253812747763046</v>
       </c>
       <c r="F23">
-        <v>0.1118259825249476</v>
+        <v>0.06578635449943704</v>
       </c>
       <c r="G23">
-        <v>0.523443570318136</v>
+        <v>0.307937775281497</v>
       </c>
       <c r="H23">
-        <v>0.1104124739494256</v>
+        <v>0.06495479841436939</v>
       </c>
       <c r="I23">
-        <v>3.109775746958234</v>
+        <v>1.829456849686122</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1067,28 +1067,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>2.833253856506062</v>
+        <v>1.666781175380438</v>
       </c>
       <c r="C24">
-        <v>0.01934712</v>
+        <v>0.01138176</v>
       </c>
       <c r="D24">
-        <v>0.1095324734287419</v>
+        <v>0.06443710096243348</v>
       </c>
       <c r="E24">
-        <v>0.5411280423776209</v>
+        <v>0.3183414124485664</v>
       </c>
       <c r="F24">
-        <v>0.1670811738902158</v>
+        <v>0.09829255319327648</v>
       </c>
       <c r="G24">
-        <v>0.5948222389978822</v>
+        <v>0.3499292900926101</v>
       </c>
       <c r="H24">
-        <v>0.1932218294114948</v>
+        <v>0.1136708972251465</v>
       </c>
       <c r="I24">
-        <v>4.458386734612017</v>
+        <v>2.622834189302472</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1096,28 +1096,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>2.754600911692506</v>
+        <v>1.620510260579627</v>
       </c>
       <c r="C25">
-        <v>0.03274128</v>
+        <v>0.01926144</v>
       </c>
       <c r="D25">
-        <v>0.1179580483078758</v>
+        <v>0.06939380103646685</v>
       </c>
       <c r="E25">
-        <v>0.5118778779247762</v>
+        <v>0.3011337685324276</v>
       </c>
       <c r="F25">
-        <v>0.1394535782075818</v>
+        <v>0.08203945384635669</v>
       </c>
       <c r="G25">
-        <v>0.7137866867974592</v>
+        <v>0.4199151481111316</v>
       </c>
       <c r="H25">
-        <v>0.03680415798314188</v>
+        <v>0.02165159947145646</v>
       </c>
       <c r="I25">
-        <v>4.307222540913341</v>
+        <v>2.533905471577466</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1125,28 +1125,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>2.653226005043924</v>
+        <v>1.560872192614132</v>
       </c>
       <c r="C26">
-        <v>0.03571776</v>
+        <v>0.02101247999999999</v>
       </c>
       <c r="D26">
-        <v>0.1811498599013807</v>
+        <v>0.106569051591717</v>
       </c>
       <c r="E26">
-        <v>0.3948772201133987</v>
+        <v>0.2323031928678728</v>
       </c>
       <c r="F26">
-        <v>0.2775915566207522</v>
+        <v>0.1633049505809554</v>
       </c>
       <c r="G26">
-        <v>1.681364195567348</v>
+        <v>0.9891334599951103</v>
       </c>
       <c r="H26">
-        <v>0.1564176714283531</v>
+        <v>0.09201929775369</v>
       </c>
       <c r="I26">
-        <v>5.380344268675157</v>
+        <v>3.165214625403478</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1154,28 +1154,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>2.165577747199881</v>
+        <v>1.273992520849083</v>
       </c>
       <c r="C27">
-        <v>0.04018247999999999</v>
+        <v>0.02363904</v>
       </c>
       <c r="D27">
-        <v>0.1179580483078758</v>
+        <v>0.06939380103646685</v>
       </c>
       <c r="E27">
-        <v>0.3875646790001879</v>
+        <v>0.2280012818888381</v>
       </c>
       <c r="F27">
-        <v>0.2683823580598741</v>
+        <v>0.1578872507986488</v>
       </c>
       <c r="G27">
-        <v>1.451366263154833</v>
+        <v>0.8538274678259686</v>
       </c>
       <c r="H27">
-        <v>0.1196135134452112</v>
+        <v>0.07036769828223353</v>
       </c>
       <c r="I27">
-        <v>4.550645089167863</v>
+        <v>2.677109060681239</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1183,28 +1183,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>2.32637932326315</v>
+        <v>1.36859083555297</v>
       </c>
       <c r="C28">
-        <v>0.07143552</v>
+        <v>0.04202495999999999</v>
       </c>
       <c r="D28">
-        <v>0.1769370724618136</v>
+        <v>0.1040907015547003</v>
       </c>
       <c r="E28">
-        <v>0.4314399256794541</v>
+        <v>0.253812747763046</v>
       </c>
       <c r="F28">
-        <v>0.1999711687504946</v>
+        <v>0.1176414809872286</v>
       </c>
       <c r="G28">
-        <v>1.292746999422064</v>
+        <v>0.7605129904679395</v>
       </c>
       <c r="H28">
-        <v>0.08280935546206926</v>
+        <v>0.04871609881077704</v>
       </c>
       <c r="I28">
-        <v>4.581719365039047</v>
+        <v>2.695389815136661</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1212,28 +1212,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>2.102655391349037</v>
+        <v>1.236975789008431</v>
       </c>
       <c r="C29">
-        <v>0.03422952</v>
+        <v>0.02013696</v>
       </c>
       <c r="D29">
-        <v>0.1600859227035458</v>
+        <v>0.09417730140663358</v>
       </c>
       <c r="E29">
-        <v>0.4680026312455098</v>
+        <v>0.2753223026582196</v>
       </c>
       <c r="F29">
-        <v>0.176290372451094</v>
+        <v>0.103710252975583</v>
       </c>
       <c r="G29">
-        <v>0.816889208223758</v>
+        <v>0.480569558393851</v>
       </c>
       <c r="H29">
-        <v>0.01840207899157094</v>
+        <v>0.01082579973572823</v>
       </c>
       <c r="I29">
-        <v>3.776555124964516</v>
+        <v>2.221717964178447</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1241,28 +1241,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>2.20752598443378</v>
+        <v>1.298670342076185</v>
       </c>
       <c r="C30">
-        <v>0.03720600000000001</v>
+        <v>0.021888</v>
       </c>
       <c r="D30">
-        <v>0.1516603478244119</v>
+        <v>0.08922060133260035</v>
       </c>
       <c r="E30">
-        <v>0.3875646790001879</v>
+        <v>0.2280012818888381</v>
       </c>
       <c r="F30">
-        <v>0.2710135576486968</v>
+        <v>0.1594351650221651</v>
       </c>
       <c r="G30">
-        <v>0.999301361516443</v>
+        <v>0.5878812073555846</v>
       </c>
       <c r="H30">
-        <v>0.07360831596628377</v>
+        <v>0.04330319894291293</v>
       </c>
       <c r="I30">
-        <v>4.127880246389803</v>
+        <v>2.428399796618286</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1270,28 +1270,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>2.256465594539991</v>
+        <v>1.327461133507802</v>
       </c>
       <c r="C31">
-        <v>0.03720600000000001</v>
+        <v>0.021888</v>
       </c>
       <c r="D31">
-        <v>0.1600859227035458</v>
+        <v>0.09417730140663358</v>
       </c>
       <c r="E31">
-        <v>0.409502302339821</v>
+        <v>0.240907014825942</v>
       </c>
       <c r="F31">
-        <v>0.2157583662834283</v>
+        <v>0.1269289663283256</v>
       </c>
       <c r="G31">
-        <v>0.9279226928366971</v>
+        <v>0.545889692544471</v>
       </c>
       <c r="H31">
-        <v>0.1840207899157095</v>
+        <v>0.1082579973572824</v>
       </c>
       <c r="I31">
-        <v>4.190961668619193</v>
+        <v>2.465510105970456</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1299,28 +1299,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>2.654973848262002</v>
+        <v>1.561900435165262</v>
       </c>
       <c r="C32">
-        <v>0.04018247999999999</v>
+        <v>0.02363904</v>
       </c>
       <c r="D32">
-        <v>0.1011068985496078</v>
+        <v>0.05948040088840015</v>
       </c>
       <c r="E32">
-        <v>0.4460650079058764</v>
+        <v>0.2624165697211155</v>
       </c>
       <c r="F32">
-        <v>0.2552263601157628</v>
+        <v>0.1501476796810681</v>
       </c>
       <c r="G32">
-        <v>0.8724059505302265</v>
+        <v>0.5132296254691612</v>
       </c>
       <c r="H32">
-        <v>0.1288145529409966</v>
+        <v>0.07578059815009766</v>
       </c>
       <c r="I32">
-        <v>4.498775098304472</v>
+        <v>2.646594349075105</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1328,28 +1328,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>2.918898174191929</v>
+        <v>1.717165060385772</v>
       </c>
       <c r="C33">
-        <v>0.02976480000000001</v>
+        <v>0.01751040000000001</v>
       </c>
       <c r="D33">
-        <v>0.2780439710114214</v>
+        <v>0.1635711024431004</v>
       </c>
       <c r="E33">
-        <v>0.4533775490190879</v>
+        <v>0.2667184807001501</v>
       </c>
       <c r="F33">
-        <v>0.2591731594989968</v>
+        <v>0.1524695510163423</v>
       </c>
       <c r="G33">
-        <v>0.8327511345970356</v>
+        <v>0.4899010061296543</v>
       </c>
       <c r="H33">
-        <v>0.09201039495785474</v>
+        <v>0.05412899867864118</v>
       </c>
       <c r="I33">
-        <v>4.864019183276326</v>
+        <v>2.861464599353659</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1357,28 +1357,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>3.558608792008846</v>
+        <v>2.093501834099059</v>
       </c>
       <c r="C34">
-        <v>0.04018247999999999</v>
+        <v>0.02363904</v>
       </c>
       <c r="D34">
-        <v>0.1642987101431127</v>
+        <v>0.09665565144365024</v>
       </c>
       <c r="E34">
-        <v>0.4606900901322986</v>
+        <v>0.2710203916791848</v>
       </c>
       <c r="F34">
-        <v>0.1552407757405154</v>
+        <v>0.09132693918745372</v>
       </c>
       <c r="G34">
-        <v>0.3172385274655374</v>
+        <v>0.1866289547160587</v>
       </c>
       <c r="H34">
-        <v>0.2024228689072804</v>
+        <v>0.1190837970930106</v>
       </c>
       <c r="I34">
-        <v>4.898682244397592</v>
+        <v>2.881856608218416</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1386,28 +1386,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>3.427520550652923</v>
+        <v>2.016383642764371</v>
       </c>
       <c r="C35">
-        <v>0.03571776</v>
+        <v>0.02101247999999999</v>
       </c>
       <c r="D35">
-        <v>0.1390219855057107</v>
+        <v>0.08178555122155019</v>
       </c>
       <c r="E35">
-        <v>0.5411280423776209</v>
+        <v>0.3183414124485664</v>
       </c>
       <c r="F35">
-        <v>0.1105103827305365</v>
+        <v>0.06501239738767889</v>
       </c>
       <c r="G35">
-        <v>0.1982740796659608</v>
+        <v>0.1166430966975366</v>
       </c>
       <c r="H35">
-        <v>0.03680415798314188</v>
+        <v>0.02165159947145646</v>
       </c>
       <c r="I35">
-        <v>4.488976958915893</v>
+        <v>2.64083017999116</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1415,28 +1415,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>2.466206780709471</v>
+        <v>1.450850239643306</v>
       </c>
       <c r="C36">
-        <v>0.04911192000000001</v>
+        <v>0.02889216000000002</v>
       </c>
       <c r="D36">
-        <v>0.1221708357474429</v>
+        <v>0.07187215107348352</v>
       </c>
       <c r="E36">
-        <v>0.5118778779247762</v>
+        <v>0.3011337685324276</v>
       </c>
       <c r="F36">
-        <v>0.06972678910379092</v>
+        <v>0.04101972692317835</v>
       </c>
       <c r="G36">
-        <v>0.2696527483457064</v>
+        <v>0.1586346115086499</v>
       </c>
       <c r="H36">
-        <v>0.01840207899157094</v>
+        <v>0.01082579973572823</v>
       </c>
       <c r="I36">
-        <v>3.507149030822759</v>
+        <v>2.063228457416774</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1444,28 +1444,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1.779304396004423</v>
+        <v>1.046750917049529</v>
       </c>
       <c r="C37">
-        <v>0.07738848000000001</v>
+        <v>0.04552704</v>
       </c>
       <c r="D37">
-        <v>0.08846853623090682</v>
+        <v>0.05204535077735017</v>
       </c>
       <c r="E37">
-        <v>0.4387524667926656</v>
+        <v>0.2581146587420808</v>
       </c>
       <c r="F37">
-        <v>0.05657079115967939</v>
+        <v>0.03328015580559752</v>
       </c>
       <c r="G37">
-        <v>0.2775837115323453</v>
+        <v>0.1633003353765512</v>
       </c>
       <c r="H37">
-        <v>0.04600519747892737</v>
+        <v>0.02706449933932059</v>
       </c>
       <c r="I37">
-        <v>2.764073579198948</v>
+        <v>1.62608295709043</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1473,28 +1473,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1.333604375394277</v>
+        <v>0.7845490665115828</v>
       </c>
       <c r="C38">
-        <v>0.0446472</v>
+        <v>0.02626559999999999</v>
       </c>
       <c r="D38">
-        <v>0.04634066183523694</v>
+        <v>0.02726185040718338</v>
       </c>
       <c r="E38">
-        <v>0.4314399256794541</v>
+        <v>0.253812747763046</v>
       </c>
       <c r="F38">
-        <v>0.03552119444910103</v>
+        <v>0.02089684201746821</v>
       </c>
       <c r="G38">
-        <v>0.1427573373594917</v>
+        <v>0.08398302962222642</v>
       </c>
       <c r="H38">
-        <v>0.04600519747892737</v>
+        <v>0.02706449933932059</v>
       </c>
       <c r="I38">
-        <v>2.080315892196489</v>
+        <v>1.223833635660827</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1502,28 +1502,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.8407125878959992</v>
+        <v>0.4945846670931471</v>
       </c>
       <c r="C39">
-        <v>0.05952960000000002</v>
+        <v>0.03502080000000001</v>
       </c>
       <c r="D39">
-        <v>0.04634066183523694</v>
+        <v>0.02726185040718338</v>
       </c>
       <c r="E39">
-        <v>0.2413138567359659</v>
+        <v>0.1419630623081444</v>
       </c>
       <c r="F39">
-        <v>0.03157439506586755</v>
+        <v>0.01857497068219398</v>
       </c>
       <c r="G39">
-        <v>0.1031025214262996</v>
+        <v>0.06065441028271906</v>
       </c>
       <c r="H39">
-        <v>0.01840207899157094</v>
+        <v>0.01082579973572823</v>
       </c>
       <c r="I39">
-        <v>1.34097570195094</v>
+        <v>0.7888855605091162</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1531,28 +1531,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.494639630716357</v>
+        <v>0.2909926419695646</v>
       </c>
       <c r="C40">
-        <v>0.03422952</v>
+        <v>0.02013696</v>
       </c>
       <c r="D40">
-        <v>0.01685114975826796</v>
+        <v>0.009913400148066699</v>
       </c>
       <c r="E40">
-        <v>0.1096881166981664</v>
+        <v>0.0645286646855202</v>
       </c>
       <c r="F40">
-        <v>0.02894319547704528</v>
+        <v>0.01702705645867781</v>
       </c>
       <c r="G40">
-        <v>0.1744811901060455</v>
+        <v>0.1026459250938323</v>
       </c>
       <c r="H40">
-        <v>0.01840207899157094</v>
+        <v>0.01082579973572823</v>
       </c>
       <c r="I40">
-        <v>0.877234881747453</v>
+        <v>0.5160704480913898</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1560,28 +1560,28 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.2988811902915093</v>
+        <v>0.175829476243094</v>
       </c>
       <c r="C41">
-        <v>0.02530008000000001</v>
+        <v>0.01488383999999999</v>
       </c>
       <c r="D41">
-        <v>0.00421278743956699</v>
+        <v>0.002478350037016675</v>
       </c>
       <c r="E41">
-        <v>0.04387524667926652</v>
+        <v>0.02581146587420808</v>
       </c>
       <c r="F41">
-        <v>0.04209919342115673</v>
+        <v>0.02476662757625863</v>
       </c>
       <c r="G41">
-        <v>0.1665502269194071</v>
+        <v>0.09798020122593083</v>
       </c>
       <c r="H41">
-        <v>0.009201039495785471</v>
+        <v>0.005412899867864116</v>
       </c>
       <c r="I41">
-        <v>0.5901197642466921</v>
+        <v>0.3471628608243724</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,25 +1589,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.2237239319141118</v>
+        <v>0.1316150465445382</v>
       </c>
       <c r="C42">
-        <v>0.03869424</v>
+        <v>0.02276352</v>
       </c>
       <c r="D42">
-        <v>0.008425574879133979</v>
+        <v>0.004956700074033349</v>
       </c>
       <c r="E42">
-        <v>0.01462508222642218</v>
+        <v>0.008603821958069363</v>
       </c>
       <c r="F42">
-        <v>0.03552119444910103</v>
+        <v>0.02089684201746821</v>
       </c>
       <c r="G42">
-        <v>0.1189644477995765</v>
+        <v>0.069985858018522</v>
       </c>
       <c r="I42">
-        <v>0.4399544712683455</v>
+        <v>0.2588217886126311</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1615,25 +1615,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.131088241355925</v>
+        <v>0.07711819133469038</v>
       </c>
       <c r="C43">
-        <v>0.01785888</v>
+        <v>0.01050624</v>
       </c>
       <c r="D43">
-        <v>0.01263836231870098</v>
+        <v>0.007435050111050019</v>
       </c>
       <c r="E43">
-        <v>0.00731254111321109</v>
+        <v>0.004301910979034681</v>
       </c>
       <c r="F43">
-        <v>0.02762759568263413</v>
+        <v>0.01625309934691972</v>
       </c>
       <c r="G43">
-        <v>0.1744811901060455</v>
+        <v>0.1026459250938323</v>
       </c>
       <c r="I43">
-        <v>0.3710068105765166</v>
+        <v>0.2182604168655271</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.178280008244058</v>
+        <v>0.1048807402151788</v>
       </c>
       <c r="C44">
-        <v>0.01339416</v>
+        <v>0.00787968</v>
       </c>
       <c r="D44">
-        <v>0.01263836231870098</v>
+        <v>0.007435050111050019</v>
       </c>
       <c r="E44">
-        <v>0.05850032890568872</v>
+        <v>0.03441528783227745</v>
       </c>
       <c r="F44">
-        <v>0.02631199588822298</v>
+        <v>0.01547914223516165</v>
       </c>
       <c r="G44">
-        <v>0.09517155823966121</v>
+        <v>0.05598868641481766</v>
       </c>
       <c r="I44">
-        <v>0.3842964135963319</v>
+        <v>0.2260785868084856</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.3583078597061952</v>
+        <v>0.2107897229814869</v>
       </c>
       <c r="C45">
-        <v>0.02083536</v>
+        <v>0.01225728</v>
       </c>
       <c r="D45">
-        <v>0.01263836231870098</v>
+        <v>0.007435050111050019</v>
       </c>
       <c r="E45">
-        <v>0.03656270556605544</v>
+        <v>0.02150955489517339</v>
       </c>
       <c r="F45">
-        <v>0.03552119444910103</v>
+        <v>0.02089684201746821</v>
       </c>
       <c r="G45">
-        <v>0.1982740796659608</v>
+        <v>0.1166430966975366</v>
       </c>
       <c r="H45">
-        <v>0.02760311848735641</v>
+        <v>0.01623869960359235</v>
       </c>
       <c r="I45">
-        <v>0.6897426801933699</v>
+        <v>0.4057702463063076</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>1.062688676592033</v>
+        <v>0.6251714710865566</v>
       </c>
       <c r="C46">
-        <v>0.02678832000000001</v>
+        <v>0.01575936</v>
       </c>
       <c r="D46">
-        <v>0.08004296135177288</v>
+        <v>0.04708865070331679</v>
       </c>
       <c r="E46">
-        <v>0.160875904490644</v>
+        <v>0.09464204153876295</v>
       </c>
       <c r="F46">
-        <v>0.08156718725349116</v>
+        <v>0.04798534092900111</v>
       </c>
       <c r="G46">
-        <v>0.3806862329586448</v>
+        <v>0.2239547456592706</v>
       </c>
       <c r="H46">
-        <v>0.009201039495785471</v>
+        <v>0.005412899867864116</v>
       </c>
       <c r="I46">
-        <v>1.801850322142372</v>
+        <v>1.060014509784772</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1.803774201057529</v>
+        <v>1.061146312765339</v>
       </c>
       <c r="C47">
-        <v>0.01934712</v>
+        <v>0.01138176</v>
       </c>
       <c r="D47">
-        <v>0.1095324734287419</v>
+        <v>0.06443710096243348</v>
       </c>
       <c r="E47">
-        <v>0.4314399256794541</v>
+        <v>0.253812747763046</v>
       </c>
       <c r="F47">
-        <v>0.1118259825249476</v>
+        <v>0.06578635449943704</v>
       </c>
       <c r="G47">
-        <v>0.523443570318136</v>
+        <v>0.307937775281497</v>
       </c>
       <c r="H47">
-        <v>0.1104124739494256</v>
+        <v>0.06495479841436939</v>
       </c>
       <c r="I47">
-        <v>3.109775746958234</v>
+        <v>1.829456849686122</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>2.833253856506062</v>
+        <v>1.666781175380438</v>
       </c>
       <c r="C48">
-        <v>0.01934712</v>
+        <v>0.01138176</v>
       </c>
       <c r="D48">
-        <v>0.1095324734287419</v>
+        <v>0.06443710096243348</v>
       </c>
       <c r="E48">
-        <v>0.5411280423776209</v>
+        <v>0.3183414124485664</v>
       </c>
       <c r="F48">
-        <v>0.1670811738902158</v>
+        <v>0.09829255319327648</v>
       </c>
       <c r="G48">
-        <v>0.5948222389978822</v>
+        <v>0.3499292900926101</v>
       </c>
       <c r="H48">
-        <v>0.1932218294114948</v>
+        <v>0.1136708972251465</v>
       </c>
       <c r="I48">
-        <v>4.458386734612017</v>
+        <v>2.622834189302472</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>2.754600911692506</v>
+        <v>1.620510260579627</v>
       </c>
       <c r="C49">
-        <v>0.03274128</v>
+        <v>0.01926144</v>
       </c>
       <c r="D49">
-        <v>0.1179580483078758</v>
+        <v>0.06939380103646685</v>
       </c>
       <c r="E49">
-        <v>0.5118778779247762</v>
+        <v>0.3011337685324276</v>
       </c>
       <c r="F49">
-        <v>0.1394535782075818</v>
+        <v>0.08203945384635669</v>
       </c>
       <c r="G49">
-        <v>0.7137866867974592</v>
+        <v>0.4199151481111316</v>
       </c>
       <c r="H49">
-        <v>0.03680415798314188</v>
+        <v>0.02165159947145646</v>
       </c>
       <c r="I49">
-        <v>4.307222540913341</v>
+        <v>2.533905471577466</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_SOx.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>1.560872192614132</v>
+        <v>2.653226005043924</v>
       </c>
       <c r="C2">
-        <v>0.02101247999999999</v>
+        <v>0.03571776</v>
       </c>
       <c r="D2">
-        <v>0.106569051591717</v>
+        <v>0.1811498599013807</v>
       </c>
       <c r="E2">
-        <v>0.2323031928678728</v>
+        <v>0.3948772201133987</v>
       </c>
       <c r="F2">
-        <v>0.1633049505809554</v>
+        <v>0.2775915566207522</v>
       </c>
       <c r="G2">
-        <v>0.9891334599951103</v>
+        <v>1.681364195567348</v>
       </c>
       <c r="H2">
-        <v>0.09201929775369</v>
+        <v>0.1564176714283531</v>
       </c>
       <c r="I2">
-        <v>3.165214625403478</v>
+        <v>5.380344268675157</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1.160885840224871</v>
+        <v>1.973314993211192</v>
       </c>
       <c r="C3">
-        <v>0.021888</v>
+        <v>0.03720600000000001</v>
       </c>
       <c r="D3">
-        <v>0.1040907015547003</v>
+        <v>0.1769370724618136</v>
       </c>
       <c r="E3">
-        <v>0.1634726172033178</v>
+        <v>0.2778765623020213</v>
       </c>
       <c r="F3">
-        <v>0.1702705645867781</v>
+        <v>0.2894319547704527</v>
       </c>
       <c r="G3">
-        <v>0.6951928563173188</v>
+        <v>1.181713514809127</v>
       </c>
       <c r="H3">
-        <v>0.07036769828223353</v>
+        <v>0.1196135134452112</v>
       </c>
       <c r="I3">
-        <v>2.386168278169219</v>
+        <v>4.056093610999818</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1.255484154928758</v>
+        <v>2.134116569274461</v>
       </c>
       <c r="C4">
-        <v>0.02363904</v>
+        <v>0.04018247999999999</v>
       </c>
       <c r="D4">
-        <v>0.08674225129558349</v>
+        <v>0.1474475603848449</v>
       </c>
       <c r="E4">
-        <v>0.2323031928678728</v>
+        <v>0.3948772201133987</v>
       </c>
       <c r="F4">
-        <v>0.1400862372282129</v>
+        <v>0.238123562788418</v>
       </c>
       <c r="G4">
-        <v>0.6858614085815156</v>
+        <v>1.16585158843585</v>
       </c>
       <c r="H4">
-        <v>0.0324773992071847</v>
+        <v>0.05520623697471282</v>
       </c>
       <c r="I4">
-        <v>2.456593684109127</v>
+        <v>4.175805217971685</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1.170140023185035</v>
+        <v>1.989045582173903</v>
       </c>
       <c r="C5">
-        <v>0.02889216000000002</v>
+        <v>0.04911192000000001</v>
       </c>
       <c r="D5">
-        <v>0.114004101702767</v>
+        <v>0.1937882222200818</v>
       </c>
       <c r="E5">
-        <v>0.1892840830775259</v>
+        <v>0.321751808981288</v>
       </c>
       <c r="F5">
-        <v>0.1176414809872286</v>
+        <v>0.1999711687504946</v>
       </c>
       <c r="G5">
-        <v>0.620541274430895</v>
+        <v>1.054818103822912</v>
       </c>
       <c r="H5">
-        <v>0.05954189854650528</v>
+        <v>0.1012114344536402</v>
       </c>
       <c r="I5">
-        <v>2.300045021929957</v>
+        <v>3.90969824040232</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1.215382695434721</v>
+        <v>2.065950683769379</v>
       </c>
       <c r="C6">
-        <v>0.03502080000000001</v>
+        <v>0.05952960000000002</v>
       </c>
       <c r="D6">
-        <v>0.09665565144365024</v>
+        <v>0.1642987101431127</v>
       </c>
       <c r="E6">
-        <v>0.245208925804977</v>
+        <v>0.4168148434530319</v>
       </c>
       <c r="F6">
-        <v>0.1362164516694225</v>
+        <v>0.2315455638163623</v>
       </c>
       <c r="G6">
-        <v>0.6438698937704027</v>
+        <v>1.094472919756105</v>
       </c>
       <c r="H6">
-        <v>0.06495479841436939</v>
+        <v>0.1104124739494256</v>
       </c>
       <c r="I6">
-        <v>2.437309216537543</v>
+        <v>4.143024794887416</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>1.194817844412135</v>
+        <v>2.030993819407798</v>
       </c>
       <c r="C7">
-        <v>0.02801664</v>
+        <v>0.04762367999999999</v>
       </c>
       <c r="D7">
-        <v>0.1189608017768003</v>
+        <v>0.2022137970992156</v>
       </c>
       <c r="E7">
-        <v>0.1849821720984913</v>
+        <v>0.3144392678680768</v>
       </c>
       <c r="F7">
-        <v>0.1532435081281005</v>
+        <v>0.2604887592934075</v>
       </c>
       <c r="G7">
-        <v>0.6578670653741068</v>
+        <v>1.118265809316017</v>
       </c>
       <c r="H7">
-        <v>0.05954189854650528</v>
+        <v>0.1012114344536402</v>
       </c>
       <c r="I7">
-        <v>2.397429930336139</v>
+        <v>4.075236567438155</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>1.258568882582146</v>
+        <v>2.139360098928698</v>
       </c>
       <c r="C8">
-        <v>0.03064319999999999</v>
+        <v>0.05208839999999999</v>
       </c>
       <c r="D8">
-        <v>0.08178555122155019</v>
+        <v>0.1390219855057107</v>
       </c>
       <c r="E8">
-        <v>0.1978879050355953</v>
+        <v>0.3363768912077103</v>
       </c>
       <c r="F8">
-        <v>0.1377643658929386</v>
+        <v>0.2341767634051846</v>
       </c>
       <c r="G8">
-        <v>0.5038981777333582</v>
+        <v>0.8565440241569509</v>
       </c>
       <c r="H8">
-        <v>0.07578059815009766</v>
+        <v>0.1288145529409966</v>
       </c>
       <c r="I8">
-        <v>2.286328680615686</v>
+        <v>3.886382716145251</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1.717165060385772</v>
+        <v>2.918898174191929</v>
       </c>
       <c r="C9">
-        <v>0.01751040000000001</v>
+        <v>0.02976480000000001</v>
       </c>
       <c r="D9">
-        <v>0.1635711024431004</v>
+        <v>0.2780439710114214</v>
       </c>
       <c r="E9">
-        <v>0.2667184807001501</v>
+        <v>0.4533775490190879</v>
       </c>
       <c r="F9">
-        <v>0.1524695510163423</v>
+        <v>0.2591731594989968</v>
       </c>
       <c r="G9">
-        <v>0.4899010061296543</v>
+        <v>0.8327511345970356</v>
       </c>
       <c r="H9">
-        <v>0.05412899867864118</v>
+        <v>0.09201039495785474</v>
       </c>
       <c r="I9">
-        <v>2.861464599353659</v>
+        <v>4.864019183276326</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>2.093501834099059</v>
+        <v>3.558608792008846</v>
       </c>
       <c r="C10">
-        <v>0.02363904</v>
+        <v>0.04018247999999999</v>
       </c>
       <c r="D10">
-        <v>0.09665565144365024</v>
+        <v>0.1642987101431127</v>
       </c>
       <c r="E10">
-        <v>0.2710203916791848</v>
+        <v>0.4606900901322986</v>
       </c>
       <c r="F10">
-        <v>0.09132693918745372</v>
+        <v>0.1552407757405154</v>
       </c>
       <c r="G10">
-        <v>0.1866289547160587</v>
+        <v>0.3172385274655374</v>
       </c>
       <c r="H10">
-        <v>0.1190837970930106</v>
+        <v>0.2024228689072804</v>
       </c>
       <c r="I10">
-        <v>2.881856608218416</v>
+        <v>4.898682244397592</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>2.016383642764371</v>
+        <v>3.427520550652923</v>
       </c>
       <c r="C11">
-        <v>0.02101247999999999</v>
+        <v>0.03571776</v>
       </c>
       <c r="D11">
-        <v>0.08178555122155019</v>
+        <v>0.1390219855057107</v>
       </c>
       <c r="E11">
-        <v>0.3183414124485664</v>
+        <v>0.5411280423776209</v>
       </c>
       <c r="F11">
-        <v>0.06501239738767889</v>
+        <v>0.1105103827305365</v>
       </c>
       <c r="G11">
-        <v>0.1166430966975366</v>
+        <v>0.1982740796659608</v>
       </c>
       <c r="H11">
-        <v>0.02165159947145646</v>
+        <v>0.03680415798314188</v>
       </c>
       <c r="I11">
-        <v>2.64083017999116</v>
+        <v>4.488976958915893</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1.450850239643306</v>
+        <v>2.466206780709471</v>
       </c>
       <c r="C12">
-        <v>0.02889216000000002</v>
+        <v>0.04911192000000001</v>
       </c>
       <c r="D12">
-        <v>0.07187215107348352</v>
+        <v>0.1221708357474429</v>
       </c>
       <c r="E12">
-        <v>0.3011337685324276</v>
+        <v>0.5118778779247762</v>
       </c>
       <c r="F12">
-        <v>0.04101972692317835</v>
+        <v>0.06972678910379092</v>
       </c>
       <c r="G12">
-        <v>0.1586346115086499</v>
+        <v>0.2696527483457064</v>
       </c>
       <c r="H12">
-        <v>0.01082579973572823</v>
+        <v>0.01840207899157094</v>
       </c>
       <c r="I12">
-        <v>2.063228457416774</v>
+        <v>3.507149030822759</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1.046750917049529</v>
+        <v>1.779304396004423</v>
       </c>
       <c r="C13">
-        <v>0.04552704</v>
+        <v>0.07738848000000001</v>
       </c>
       <c r="D13">
-        <v>0.05204535077735017</v>
+        <v>0.08846853623090682</v>
       </c>
       <c r="E13">
-        <v>0.2581146587420808</v>
+        <v>0.4387524667926656</v>
       </c>
       <c r="F13">
-        <v>0.03328015580559752</v>
+        <v>0.05657079115967939</v>
       </c>
       <c r="G13">
-        <v>0.1633003353765512</v>
+        <v>0.2775837115323453</v>
       </c>
       <c r="H13">
-        <v>0.02706449933932059</v>
+        <v>0.04600519747892737</v>
       </c>
       <c r="I13">
-        <v>1.62608295709043</v>
+        <v>2.764073579198948</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.7845490665115828</v>
+        <v>1.333604375394277</v>
       </c>
       <c r="C14">
-        <v>0.02626559999999999</v>
+        <v>0.0446472</v>
       </c>
       <c r="D14">
-        <v>0.02726185040718338</v>
+        <v>0.04634066183523694</v>
       </c>
       <c r="E14">
-        <v>0.253812747763046</v>
+        <v>0.4314399256794541</v>
       </c>
       <c r="F14">
-        <v>0.02089684201746821</v>
+        <v>0.03552119444910103</v>
       </c>
       <c r="G14">
-        <v>0.08398302962222642</v>
+        <v>0.1427573373594917</v>
       </c>
       <c r="H14">
-        <v>0.02706449933932059</v>
+        <v>0.04600519747892737</v>
       </c>
       <c r="I14">
-        <v>1.223833635660827</v>
+        <v>2.080315892196489</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.4945846670931471</v>
+        <v>0.8407125878959992</v>
       </c>
       <c r="C15">
-        <v>0.03502080000000001</v>
+        <v>0.05952960000000002</v>
       </c>
       <c r="D15">
-        <v>0.02726185040718338</v>
+        <v>0.04634066183523694</v>
       </c>
       <c r="E15">
-        <v>0.1419630623081444</v>
+        <v>0.2413138567359659</v>
       </c>
       <c r="F15">
-        <v>0.01857497068219398</v>
+        <v>0.03157439506586755</v>
       </c>
       <c r="G15">
-        <v>0.06065441028271906</v>
+        <v>0.1031025214262996</v>
       </c>
       <c r="H15">
-        <v>0.01082579973572823</v>
+        <v>0.01840207899157094</v>
       </c>
       <c r="I15">
-        <v>0.7888855605091162</v>
+        <v>1.34097570195094</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.2909926419695646</v>
+        <v>0.494639630716357</v>
       </c>
       <c r="C16">
-        <v>0.02013696</v>
+        <v>0.03422952</v>
       </c>
       <c r="D16">
-        <v>0.009913400148066699</v>
+        <v>0.01685114975826796</v>
       </c>
       <c r="E16">
-        <v>0.0645286646855202</v>
+        <v>0.1096881166981664</v>
       </c>
       <c r="F16">
-        <v>0.01702705645867781</v>
+        <v>0.02894319547704528</v>
       </c>
       <c r="G16">
-        <v>0.1026459250938323</v>
+        <v>0.1744811901060455</v>
       </c>
       <c r="H16">
-        <v>0.01082579973572823</v>
+        <v>0.01840207899157094</v>
       </c>
       <c r="I16">
-        <v>0.5160704480913898</v>
+        <v>0.877234881747453</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,28 +873,28 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.175829476243094</v>
+        <v>0.2988811902915093</v>
       </c>
       <c r="C17">
-        <v>0.01488383999999999</v>
+        <v>0.02530008000000001</v>
       </c>
       <c r="D17">
-        <v>0.002478350037016675</v>
+        <v>0.00421278743956699</v>
       </c>
       <c r="E17">
-        <v>0.02581146587420808</v>
+        <v>0.04387524667926652</v>
       </c>
       <c r="F17">
-        <v>0.02476662757625863</v>
+        <v>0.04209919342115673</v>
       </c>
       <c r="G17">
-        <v>0.09798020122593083</v>
+        <v>0.1665502269194071</v>
       </c>
       <c r="H17">
-        <v>0.005412899867864116</v>
+        <v>0.009201039495785471</v>
       </c>
       <c r="I17">
-        <v>0.3471628608243724</v>
+        <v>0.5901197642466921</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -902,25 +902,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.1316150465445382</v>
+        <v>0.2237239319141118</v>
       </c>
       <c r="C18">
-        <v>0.02276352</v>
+        <v>0.03869424</v>
       </c>
       <c r="D18">
-        <v>0.004956700074033349</v>
+        <v>0.008425574879133979</v>
       </c>
       <c r="E18">
-        <v>0.008603821958069363</v>
+        <v>0.01462508222642218</v>
       </c>
       <c r="F18">
-        <v>0.02089684201746821</v>
+        <v>0.03552119444910103</v>
       </c>
       <c r="G18">
-        <v>0.069985858018522</v>
+        <v>0.1189644477995765</v>
       </c>
       <c r="I18">
-        <v>0.2588217886126311</v>
+        <v>0.4399544712683455</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.07711819133469038</v>
+        <v>0.131088241355925</v>
       </c>
       <c r="C19">
-        <v>0.01050624</v>
+        <v>0.01785888</v>
       </c>
       <c r="D19">
-        <v>0.007435050111050019</v>
+        <v>0.01263836231870098</v>
       </c>
       <c r="E19">
-        <v>0.004301910979034681</v>
+        <v>0.00731254111321109</v>
       </c>
       <c r="F19">
-        <v>0.01625309934691972</v>
+        <v>0.02762759568263413</v>
       </c>
       <c r="G19">
-        <v>0.1026459250938323</v>
+        <v>0.1744811901060455</v>
       </c>
       <c r="I19">
-        <v>0.2182604168655271</v>
+        <v>0.3710068105765166</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,25 +954,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.1048807402151788</v>
+        <v>0.178280008244058</v>
       </c>
       <c r="C20">
-        <v>0.00787968</v>
+        <v>0.01339416</v>
       </c>
       <c r="D20">
-        <v>0.007435050111050019</v>
+        <v>0.01263836231870098</v>
       </c>
       <c r="E20">
-        <v>0.03441528783227745</v>
+        <v>0.05850032890568872</v>
       </c>
       <c r="F20">
-        <v>0.01547914223516165</v>
+        <v>0.02631199588822298</v>
       </c>
       <c r="G20">
-        <v>0.05598868641481766</v>
+        <v>0.09517155823966121</v>
       </c>
       <c r="I20">
-        <v>0.2260785868084856</v>
+        <v>0.3842964135963319</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -980,28 +980,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.2107897229814869</v>
+        <v>0.3583078597061952</v>
       </c>
       <c r="C21">
-        <v>0.01225728</v>
+        <v>0.02083536</v>
       </c>
       <c r="D21">
-        <v>0.007435050111050019</v>
+        <v>0.01263836231870098</v>
       </c>
       <c r="E21">
-        <v>0.02150955489517339</v>
+        <v>0.03656270556605544</v>
       </c>
       <c r="F21">
-        <v>0.02089684201746821</v>
+        <v>0.03552119444910103</v>
       </c>
       <c r="G21">
-        <v>0.1166430966975366</v>
+        <v>0.1982740796659608</v>
       </c>
       <c r="H21">
-        <v>0.01623869960359235</v>
+        <v>0.02760311848735641</v>
       </c>
       <c r="I21">
-        <v>0.4057702463063076</v>
+        <v>0.6897426801933699</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1009,28 +1009,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.6251714710865566</v>
+        <v>1.062688676592033</v>
       </c>
       <c r="C22">
-        <v>0.01575936</v>
+        <v>0.02678832000000001</v>
       </c>
       <c r="D22">
-        <v>0.04708865070331679</v>
+        <v>0.08004296135177288</v>
       </c>
       <c r="E22">
-        <v>0.09464204153876295</v>
+        <v>0.160875904490644</v>
       </c>
       <c r="F22">
-        <v>0.04798534092900111</v>
+        <v>0.08156718725349116</v>
       </c>
       <c r="G22">
-        <v>0.2239547456592706</v>
+        <v>0.3806862329586448</v>
       </c>
       <c r="H22">
-        <v>0.005412899867864116</v>
+        <v>0.009201039495785471</v>
       </c>
       <c r="I22">
-        <v>1.060014509784772</v>
+        <v>1.801850322142372</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1038,28 +1038,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1.061146312765339</v>
+        <v>1.803774201057529</v>
       </c>
       <c r="C23">
-        <v>0.01138176</v>
+        <v>0.01934712</v>
       </c>
       <c r="D23">
-        <v>0.06443710096243348</v>
+        <v>0.1095324734287419</v>
       </c>
       <c r="E23">
-        <v>0.253812747763046</v>
+        <v>0.4314399256794541</v>
       </c>
       <c r="F23">
-        <v>0.06578635449943704</v>
+        <v>0.1118259825249476</v>
       </c>
       <c r="G23">
-        <v>0.307937775281497</v>
+        <v>0.523443570318136</v>
       </c>
       <c r="H23">
-        <v>0.06495479841436939</v>
+        <v>0.1104124739494256</v>
       </c>
       <c r="I23">
-        <v>1.829456849686122</v>
+        <v>3.109775746958234</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1067,28 +1067,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1.666781175380438</v>
+        <v>2.833253856506062</v>
       </c>
       <c r="C24">
-        <v>0.01138176</v>
+        <v>0.01934712</v>
       </c>
       <c r="D24">
-        <v>0.06443710096243348</v>
+        <v>0.1095324734287419</v>
       </c>
       <c r="E24">
-        <v>0.3183414124485664</v>
+        <v>0.5411280423776209</v>
       </c>
       <c r="F24">
-        <v>0.09829255319327648</v>
+        <v>0.1670811738902158</v>
       </c>
       <c r="G24">
-        <v>0.3499292900926101</v>
+        <v>0.5948222389978822</v>
       </c>
       <c r="H24">
-        <v>0.1136708972251465</v>
+        <v>0.1932218294114948</v>
       </c>
       <c r="I24">
-        <v>2.622834189302472</v>
+        <v>4.458386734612017</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1096,28 +1096,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1.620510260579627</v>
+        <v>2.754600911692506</v>
       </c>
       <c r="C25">
-        <v>0.01926144</v>
+        <v>0.03274128</v>
       </c>
       <c r="D25">
-        <v>0.06939380103646685</v>
+        <v>0.1179580483078758</v>
       </c>
       <c r="E25">
-        <v>0.3011337685324276</v>
+        <v>0.5118778779247762</v>
       </c>
       <c r="F25">
-        <v>0.08203945384635669</v>
+        <v>0.1394535782075818</v>
       </c>
       <c r="G25">
-        <v>0.4199151481111316</v>
+        <v>0.7137866867974592</v>
       </c>
       <c r="H25">
-        <v>0.02165159947145646</v>
+        <v>0.03680415798314188</v>
       </c>
       <c r="I25">
-        <v>2.533905471577466</v>
+        <v>4.307222540913341</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1125,28 +1125,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1.560872192614132</v>
+        <v>2.653226005043924</v>
       </c>
       <c r="C26">
-        <v>0.02101247999999999</v>
+        <v>0.03571776</v>
       </c>
       <c r="D26">
-        <v>0.106569051591717</v>
+        <v>0.1811498599013807</v>
       </c>
       <c r="E26">
-        <v>0.2323031928678728</v>
+        <v>0.3948772201133987</v>
       </c>
       <c r="F26">
-        <v>0.1633049505809554</v>
+        <v>0.2775915566207522</v>
       </c>
       <c r="G26">
-        <v>0.9891334599951103</v>
+        <v>1.681364195567348</v>
       </c>
       <c r="H26">
-        <v>0.09201929775369</v>
+        <v>0.1564176714283531</v>
       </c>
       <c r="I26">
-        <v>3.165214625403478</v>
+        <v>5.380344268675157</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1154,28 +1154,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>1.273992520849083</v>
+        <v>2.165577747199881</v>
       </c>
       <c r="C27">
-        <v>0.02363904</v>
+        <v>0.04018247999999999</v>
       </c>
       <c r="D27">
-        <v>0.06939380103646685</v>
+        <v>0.1179580483078758</v>
       </c>
       <c r="E27">
-        <v>0.2280012818888381</v>
+        <v>0.3875646790001879</v>
       </c>
       <c r="F27">
-        <v>0.1578872507986488</v>
+        <v>0.2683823580598741</v>
       </c>
       <c r="G27">
-        <v>0.8538274678259686</v>
+        <v>1.451366263154833</v>
       </c>
       <c r="H27">
-        <v>0.07036769828223353</v>
+        <v>0.1196135134452112</v>
       </c>
       <c r="I27">
-        <v>2.677109060681239</v>
+        <v>4.550645089167863</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1183,28 +1183,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>1.36859083555297</v>
+        <v>2.32637932326315</v>
       </c>
       <c r="C28">
-        <v>0.04202495999999999</v>
+        <v>0.07143552</v>
       </c>
       <c r="D28">
-        <v>0.1040907015547003</v>
+        <v>0.1769370724618136</v>
       </c>
       <c r="E28">
-        <v>0.253812747763046</v>
+        <v>0.4314399256794541</v>
       </c>
       <c r="F28">
-        <v>0.1176414809872286</v>
+        <v>0.1999711687504946</v>
       </c>
       <c r="G28">
-        <v>0.7605129904679395</v>
+        <v>1.292746999422064</v>
       </c>
       <c r="H28">
-        <v>0.04871609881077704</v>
+        <v>0.08280935546206926</v>
       </c>
       <c r="I28">
-        <v>2.695389815136661</v>
+        <v>4.581719365039047</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1212,28 +1212,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>1.236975789008431</v>
+        <v>2.102655391349037</v>
       </c>
       <c r="C29">
-        <v>0.02013696</v>
+        <v>0.03422952</v>
       </c>
       <c r="D29">
-        <v>0.09417730140663358</v>
+        <v>0.1600859227035458</v>
       </c>
       <c r="E29">
-        <v>0.2753223026582196</v>
+        <v>0.4680026312455098</v>
       </c>
       <c r="F29">
-        <v>0.103710252975583</v>
+        <v>0.176290372451094</v>
       </c>
       <c r="G29">
-        <v>0.480569558393851</v>
+        <v>0.816889208223758</v>
       </c>
       <c r="H29">
-        <v>0.01082579973572823</v>
+        <v>0.01840207899157094</v>
       </c>
       <c r="I29">
-        <v>2.221717964178447</v>
+        <v>3.776555124964516</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1241,28 +1241,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1.298670342076185</v>
+        <v>2.20752598443378</v>
       </c>
       <c r="C30">
-        <v>0.021888</v>
+        <v>0.03720600000000001</v>
       </c>
       <c r="D30">
-        <v>0.08922060133260035</v>
+        <v>0.1516603478244119</v>
       </c>
       <c r="E30">
-        <v>0.2280012818888381</v>
+        <v>0.3875646790001879</v>
       </c>
       <c r="F30">
-        <v>0.1594351650221651</v>
+        <v>0.2710135576486968</v>
       </c>
       <c r="G30">
-        <v>0.5878812073555846</v>
+        <v>0.999301361516443</v>
       </c>
       <c r="H30">
-        <v>0.04330319894291293</v>
+        <v>0.07360831596628377</v>
       </c>
       <c r="I30">
-        <v>2.428399796618286</v>
+        <v>4.127880246389803</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1270,28 +1270,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1.327461133507802</v>
+        <v>2.256465594539991</v>
       </c>
       <c r="C31">
-        <v>0.021888</v>
+        <v>0.03720600000000001</v>
       </c>
       <c r="D31">
-        <v>0.09417730140663358</v>
+        <v>0.1600859227035458</v>
       </c>
       <c r="E31">
-        <v>0.240907014825942</v>
+        <v>0.409502302339821</v>
       </c>
       <c r="F31">
-        <v>0.1269289663283256</v>
+        <v>0.2157583662834283</v>
       </c>
       <c r="G31">
-        <v>0.545889692544471</v>
+        <v>0.9279226928366971</v>
       </c>
       <c r="H31">
-        <v>0.1082579973572824</v>
+        <v>0.1840207899157095</v>
       </c>
       <c r="I31">
-        <v>2.465510105970456</v>
+        <v>4.190961668619193</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1299,28 +1299,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1.561900435165262</v>
+        <v>2.654973848262002</v>
       </c>
       <c r="C32">
-        <v>0.02363904</v>
+        <v>0.04018247999999999</v>
       </c>
       <c r="D32">
-        <v>0.05948040088840015</v>
+        <v>0.1011068985496078</v>
       </c>
       <c r="E32">
-        <v>0.2624165697211155</v>
+        <v>0.4460650079058764</v>
       </c>
       <c r="F32">
-        <v>0.1501476796810681</v>
+        <v>0.2552263601157628</v>
       </c>
       <c r="G32">
-        <v>0.5132296254691612</v>
+        <v>0.8724059505302265</v>
       </c>
       <c r="H32">
-        <v>0.07578059815009766</v>
+        <v>0.1288145529409966</v>
       </c>
       <c r="I32">
-        <v>2.646594349075105</v>
+        <v>4.498775098304472</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1328,28 +1328,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1.717165060385772</v>
+        <v>2.918898174191929</v>
       </c>
       <c r="C33">
-        <v>0.01751040000000001</v>
+        <v>0.02976480000000001</v>
       </c>
       <c r="D33">
-        <v>0.1635711024431004</v>
+        <v>0.2780439710114214</v>
       </c>
       <c r="E33">
-        <v>0.2667184807001501</v>
+        <v>0.4533775490190879</v>
       </c>
       <c r="F33">
-        <v>0.1524695510163423</v>
+        <v>0.2591731594989968</v>
       </c>
       <c r="G33">
-        <v>0.4899010061296543</v>
+        <v>0.8327511345970356</v>
       </c>
       <c r="H33">
-        <v>0.05412899867864118</v>
+        <v>0.09201039495785474</v>
       </c>
       <c r="I33">
-        <v>2.861464599353659</v>
+        <v>4.864019183276326</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1357,28 +1357,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>2.093501834099059</v>
+        <v>3.558608792008846</v>
       </c>
       <c r="C34">
-        <v>0.02363904</v>
+        <v>0.04018247999999999</v>
       </c>
       <c r="D34">
-        <v>0.09665565144365024</v>
+        <v>0.1642987101431127</v>
       </c>
       <c r="E34">
-        <v>0.2710203916791848</v>
+        <v>0.4606900901322986</v>
       </c>
       <c r="F34">
-        <v>0.09132693918745372</v>
+        <v>0.1552407757405154</v>
       </c>
       <c r="G34">
-        <v>0.1866289547160587</v>
+        <v>0.3172385274655374</v>
       </c>
       <c r="H34">
-        <v>0.1190837970930106</v>
+        <v>0.2024228689072804</v>
       </c>
       <c r="I34">
-        <v>2.881856608218416</v>
+        <v>4.898682244397592</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1386,28 +1386,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>2.016383642764371</v>
+        <v>3.427520550652923</v>
       </c>
       <c r="C35">
-        <v>0.02101247999999999</v>
+        <v>0.03571776</v>
       </c>
       <c r="D35">
-        <v>0.08178555122155019</v>
+        <v>0.1390219855057107</v>
       </c>
       <c r="E35">
-        <v>0.3183414124485664</v>
+        <v>0.5411280423776209</v>
       </c>
       <c r="F35">
-        <v>0.06501239738767889</v>
+        <v>0.1105103827305365</v>
       </c>
       <c r="G35">
-        <v>0.1166430966975366</v>
+        <v>0.1982740796659608</v>
       </c>
       <c r="H35">
-        <v>0.02165159947145646</v>
+        <v>0.03680415798314188</v>
       </c>
       <c r="I35">
-        <v>2.64083017999116</v>
+        <v>4.488976958915893</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1415,28 +1415,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1.450850239643306</v>
+        <v>2.466206780709471</v>
       </c>
       <c r="C36">
-        <v>0.02889216000000002</v>
+        <v>0.04911192000000001</v>
       </c>
       <c r="D36">
-        <v>0.07187215107348352</v>
+        <v>0.1221708357474429</v>
       </c>
       <c r="E36">
-        <v>0.3011337685324276</v>
+        <v>0.5118778779247762</v>
       </c>
       <c r="F36">
-        <v>0.04101972692317835</v>
+        <v>0.06972678910379092</v>
       </c>
       <c r="G36">
-        <v>0.1586346115086499</v>
+        <v>0.2696527483457064</v>
       </c>
       <c r="H36">
-        <v>0.01082579973572823</v>
+        <v>0.01840207899157094</v>
       </c>
       <c r="I36">
-        <v>2.063228457416774</v>
+        <v>3.507149030822759</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1444,28 +1444,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1.046750917049529</v>
+        <v>1.779304396004423</v>
       </c>
       <c r="C37">
-        <v>0.04552704</v>
+        <v>0.07738848000000001</v>
       </c>
       <c r="D37">
-        <v>0.05204535077735017</v>
+        <v>0.08846853623090682</v>
       </c>
       <c r="E37">
-        <v>0.2581146587420808</v>
+        <v>0.4387524667926656</v>
       </c>
       <c r="F37">
-        <v>0.03328015580559752</v>
+        <v>0.05657079115967939</v>
       </c>
       <c r="G37">
-        <v>0.1633003353765512</v>
+        <v>0.2775837115323453</v>
       </c>
       <c r="H37">
-        <v>0.02706449933932059</v>
+        <v>0.04600519747892737</v>
       </c>
       <c r="I37">
-        <v>1.62608295709043</v>
+        <v>2.764073579198948</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1473,28 +1473,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.7845490665115828</v>
+        <v>1.333604375394277</v>
       </c>
       <c r="C38">
-        <v>0.02626559999999999</v>
+        <v>0.0446472</v>
       </c>
       <c r="D38">
-        <v>0.02726185040718338</v>
+        <v>0.04634066183523694</v>
       </c>
       <c r="E38">
-        <v>0.253812747763046</v>
+        <v>0.4314399256794541</v>
       </c>
       <c r="F38">
-        <v>0.02089684201746821</v>
+        <v>0.03552119444910103</v>
       </c>
       <c r="G38">
-        <v>0.08398302962222642</v>
+        <v>0.1427573373594917</v>
       </c>
       <c r="H38">
-        <v>0.02706449933932059</v>
+        <v>0.04600519747892737</v>
       </c>
       <c r="I38">
-        <v>1.223833635660827</v>
+        <v>2.080315892196489</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1502,28 +1502,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.4945846670931471</v>
+        <v>0.8407125878959992</v>
       </c>
       <c r="C39">
-        <v>0.03502080000000001</v>
+        <v>0.05952960000000002</v>
       </c>
       <c r="D39">
-        <v>0.02726185040718338</v>
+        <v>0.04634066183523694</v>
       </c>
       <c r="E39">
-        <v>0.1419630623081444</v>
+        <v>0.2413138567359659</v>
       </c>
       <c r="F39">
-        <v>0.01857497068219398</v>
+        <v>0.03157439506586755</v>
       </c>
       <c r="G39">
-        <v>0.06065441028271906</v>
+        <v>0.1031025214262996</v>
       </c>
       <c r="H39">
-        <v>0.01082579973572823</v>
+        <v>0.01840207899157094</v>
       </c>
       <c r="I39">
-        <v>0.7888855605091162</v>
+        <v>1.34097570195094</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1531,28 +1531,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.2909926419695646</v>
+        <v>0.494639630716357</v>
       </c>
       <c r="C40">
-        <v>0.02013696</v>
+        <v>0.03422952</v>
       </c>
       <c r="D40">
-        <v>0.009913400148066699</v>
+        <v>0.01685114975826796</v>
       </c>
       <c r="E40">
-        <v>0.0645286646855202</v>
+        <v>0.1096881166981664</v>
       </c>
       <c r="F40">
-        <v>0.01702705645867781</v>
+        <v>0.02894319547704528</v>
       </c>
       <c r="G40">
-        <v>0.1026459250938323</v>
+        <v>0.1744811901060455</v>
       </c>
       <c r="H40">
-        <v>0.01082579973572823</v>
+        <v>0.01840207899157094</v>
       </c>
       <c r="I40">
-        <v>0.5160704480913898</v>
+        <v>0.877234881747453</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1560,28 +1560,28 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.175829476243094</v>
+        <v>0.2988811902915093</v>
       </c>
       <c r="C41">
-        <v>0.01488383999999999</v>
+        <v>0.02530008000000001</v>
       </c>
       <c r="D41">
-        <v>0.002478350037016675</v>
+        <v>0.00421278743956699</v>
       </c>
       <c r="E41">
-        <v>0.02581146587420808</v>
+        <v>0.04387524667926652</v>
       </c>
       <c r="F41">
-        <v>0.02476662757625863</v>
+        <v>0.04209919342115673</v>
       </c>
       <c r="G41">
-        <v>0.09798020122593083</v>
+        <v>0.1665502269194071</v>
       </c>
       <c r="H41">
-        <v>0.005412899867864116</v>
+        <v>0.009201039495785471</v>
       </c>
       <c r="I41">
-        <v>0.3471628608243724</v>
+        <v>0.5901197642466921</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,25 +1589,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.1316150465445382</v>
+        <v>0.2237239319141118</v>
       </c>
       <c r="C42">
-        <v>0.02276352</v>
+        <v>0.03869424</v>
       </c>
       <c r="D42">
-        <v>0.004956700074033349</v>
+        <v>0.008425574879133979</v>
       </c>
       <c r="E42">
-        <v>0.008603821958069363</v>
+        <v>0.01462508222642218</v>
       </c>
       <c r="F42">
-        <v>0.02089684201746821</v>
+        <v>0.03552119444910103</v>
       </c>
       <c r="G42">
-        <v>0.069985858018522</v>
+        <v>0.1189644477995765</v>
       </c>
       <c r="I42">
-        <v>0.2588217886126311</v>
+        <v>0.4399544712683455</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1615,25 +1615,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.07711819133469038</v>
+        <v>0.131088241355925</v>
       </c>
       <c r="C43">
-        <v>0.01050624</v>
+        <v>0.01785888</v>
       </c>
       <c r="D43">
-        <v>0.007435050111050019</v>
+        <v>0.01263836231870098</v>
       </c>
       <c r="E43">
-        <v>0.004301910979034681</v>
+        <v>0.00731254111321109</v>
       </c>
       <c r="F43">
-        <v>0.01625309934691972</v>
+        <v>0.02762759568263413</v>
       </c>
       <c r="G43">
-        <v>0.1026459250938323</v>
+        <v>0.1744811901060455</v>
       </c>
       <c r="I43">
-        <v>0.2182604168655271</v>
+        <v>0.3710068105765166</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.1048807402151788</v>
+        <v>0.178280008244058</v>
       </c>
       <c r="C44">
-        <v>0.00787968</v>
+        <v>0.01339416</v>
       </c>
       <c r="D44">
-        <v>0.007435050111050019</v>
+        <v>0.01263836231870098</v>
       </c>
       <c r="E44">
-        <v>0.03441528783227745</v>
+        <v>0.05850032890568872</v>
       </c>
       <c r="F44">
-        <v>0.01547914223516165</v>
+        <v>0.02631199588822298</v>
       </c>
       <c r="G44">
-        <v>0.05598868641481766</v>
+        <v>0.09517155823966121</v>
       </c>
       <c r="I44">
-        <v>0.2260785868084856</v>
+        <v>0.3842964135963319</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.2107897229814869</v>
+        <v>0.3583078597061952</v>
       </c>
       <c r="C45">
-        <v>0.01225728</v>
+        <v>0.02083536</v>
       </c>
       <c r="D45">
-        <v>0.007435050111050019</v>
+        <v>0.01263836231870098</v>
       </c>
       <c r="E45">
-        <v>0.02150955489517339</v>
+        <v>0.03656270556605544</v>
       </c>
       <c r="F45">
-        <v>0.02089684201746821</v>
+        <v>0.03552119444910103</v>
       </c>
       <c r="G45">
-        <v>0.1166430966975366</v>
+        <v>0.1982740796659608</v>
       </c>
       <c r="H45">
-        <v>0.01623869960359235</v>
+        <v>0.02760311848735641</v>
       </c>
       <c r="I45">
-        <v>0.4057702463063076</v>
+        <v>0.6897426801933699</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.6251714710865566</v>
+        <v>1.062688676592033</v>
       </c>
       <c r="C46">
-        <v>0.01575936</v>
+        <v>0.02678832000000001</v>
       </c>
       <c r="D46">
-        <v>0.04708865070331679</v>
+        <v>0.08004296135177288</v>
       </c>
       <c r="E46">
-        <v>0.09464204153876295</v>
+        <v>0.160875904490644</v>
       </c>
       <c r="F46">
-        <v>0.04798534092900111</v>
+        <v>0.08156718725349116</v>
       </c>
       <c r="G46">
-        <v>0.2239547456592706</v>
+        <v>0.3806862329586448</v>
       </c>
       <c r="H46">
-        <v>0.005412899867864116</v>
+        <v>0.009201039495785471</v>
       </c>
       <c r="I46">
-        <v>1.060014509784772</v>
+        <v>1.801850322142372</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1.061146312765339</v>
+        <v>1.803774201057529</v>
       </c>
       <c r="C47">
-        <v>0.01138176</v>
+        <v>0.01934712</v>
       </c>
       <c r="D47">
-        <v>0.06443710096243348</v>
+        <v>0.1095324734287419</v>
       </c>
       <c r="E47">
-        <v>0.253812747763046</v>
+        <v>0.4314399256794541</v>
       </c>
       <c r="F47">
-        <v>0.06578635449943704</v>
+        <v>0.1118259825249476</v>
       </c>
       <c r="G47">
-        <v>0.307937775281497</v>
+        <v>0.523443570318136</v>
       </c>
       <c r="H47">
-        <v>0.06495479841436939</v>
+        <v>0.1104124739494256</v>
       </c>
       <c r="I47">
-        <v>1.829456849686122</v>
+        <v>3.109775746958234</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1.666781175380438</v>
+        <v>2.833253856506062</v>
       </c>
       <c r="C48">
-        <v>0.01138176</v>
+        <v>0.01934712</v>
       </c>
       <c r="D48">
-        <v>0.06443710096243348</v>
+        <v>0.1095324734287419</v>
       </c>
       <c r="E48">
-        <v>0.3183414124485664</v>
+        <v>0.5411280423776209</v>
       </c>
       <c r="F48">
-        <v>0.09829255319327648</v>
+        <v>0.1670811738902158</v>
       </c>
       <c r="G48">
-        <v>0.3499292900926101</v>
+        <v>0.5948222389978822</v>
       </c>
       <c r="H48">
-        <v>0.1136708972251465</v>
+        <v>0.1932218294114948</v>
       </c>
       <c r="I48">
-        <v>2.622834189302472</v>
+        <v>4.458386734612017</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1.620510260579627</v>
+        <v>2.754600911692506</v>
       </c>
       <c r="C49">
-        <v>0.01926144</v>
+        <v>0.03274128</v>
       </c>
       <c r="D49">
-        <v>0.06939380103646685</v>
+        <v>0.1179580483078758</v>
       </c>
       <c r="E49">
-        <v>0.3011337685324276</v>
+        <v>0.5118778779247762</v>
       </c>
       <c r="F49">
-        <v>0.08203945384635669</v>
+        <v>0.1394535782075818</v>
       </c>
       <c r="G49">
-        <v>0.4199151481111316</v>
+        <v>0.7137866867974592</v>
       </c>
       <c r="H49">
-        <v>0.02165159947145646</v>
+        <v>0.03680415798314188</v>
       </c>
       <c r="I49">
-        <v>2.533905471577466</v>
+        <v>4.307222540913341</v>
       </c>
     </row>
   </sheetData>
